--- a/Herramienta/static/files/Actividad.xlsx
+++ b/Herramienta/static/files/Actividad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiton/Desktop/Universidad/TesisIIND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CD9307-6AE1-4A46-A533-4BD1D937307E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A27BD3-6FD2-5D49-8E32-33C88288BFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Penalización por entregar tarde el informe</t>
   </si>
   <si>
-    <t>1. Burger Xpress</t>
-  </si>
-  <si>
     <t>a. Formulación General</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>Los resultados no se presentan</t>
   </si>
   <si>
-    <t>2. Método Gráfico</t>
-  </si>
-  <si>
     <t>a. Formulación Explícita</t>
   </si>
   <si>
@@ -705,9 +699,6 @@
     <t>No hace comentarios o los hace de forma incorrecta</t>
   </si>
   <si>
-    <t>4. Selección de Proyectos</t>
-  </si>
-  <si>
     <t>Se debe invertir solo una vez en cada proyecto</t>
   </si>
   <si>
@@ -828,9 +819,6 @@
     <t>d. Implementación en Xpress-MP</t>
   </si>
   <si>
-    <t>5. Bono 1</t>
-  </si>
-  <si>
     <t>Formulación e Implementación</t>
   </si>
   <si>
@@ -849,7 +837,19 @@
     <t>No muestra los resultados obtenido</t>
   </si>
   <si>
-    <t>2014-10 Prueba</t>
+    <t>Burger Xpress</t>
+  </si>
+  <si>
+    <t>Método Gráfico</t>
+  </si>
+  <si>
+    <t>Selección de Proyectos</t>
+  </si>
+  <si>
+    <t>Bono 1</t>
+  </si>
+  <si>
+    <t>2014-10 Prueba 2</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1428,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1436,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1459,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0.5</v>
@@ -1479,10 +1479,10 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -1490,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -1510,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -1530,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1553,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -1564,7 +1564,7 @@
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>0.5</v>
@@ -1573,10 +1573,10 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -1584,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -1604,7 +1604,7 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1627,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -1638,7 +1638,7 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H32">
         <v>0.4</v>
@@ -1647,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -1658,7 +1658,7 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33">
         <v>0.4</v>
@@ -1667,10 +1667,10 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -1678,7 +1678,7 @@
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1687,10 +1687,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -1706,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1729,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
@@ -1740,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38">
         <v>0.4</v>
@@ -1749,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -1760,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1769,10 +1769,10 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
@@ -1780,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1803,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
@@ -1814,7 +1814,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H42">
         <v>0.4</v>
@@ -1823,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
@@ -1834,7 +1834,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -1877,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
@@ -1888,7 +1888,7 @@
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -1897,10 +1897,10 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
@@ -1908,7 +1908,7 @@
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -1917,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
@@ -1928,7 +1928,7 @@
         <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -1948,7 +1948,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -1971,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
@@ -1982,7 +1982,7 @@
         <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H51">
         <v>1.8</v>
@@ -1991,10 +1991,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
@@ -2002,7 +2002,7 @@
         <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2011,10 +2011,10 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -2022,7 +2022,7 @@
         <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2031,10 +2031,10 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
@@ -2042,7 +2042,7 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -2065,10 +2065,10 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
@@ -2076,7 +2076,7 @@
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H56">
         <v>1.8</v>
@@ -2085,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -2096,7 +2096,7 @@
         <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -2105,10 +2105,10 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
@@ -2116,7 +2116,7 @@
         <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -2136,7 +2136,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H60">
         <v>4</v>
@@ -2159,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
@@ -2170,7 +2170,7 @@
         <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -2179,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
@@ -2190,7 +2190,7 @@
         <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -2199,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
@@ -2210,7 +2210,7 @@
         <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H63">
         <v>1.5</v>
@@ -2219,10 +2219,10 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
@@ -2230,7 +2230,7 @@
         <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
@@ -2250,7 +2250,7 @@
         <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -2273,10 +2273,10 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
@@ -2284,7 +2284,7 @@
         <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H67">
         <v>0.5</v>
@@ -2293,10 +2293,10 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
@@ -2304,7 +2304,7 @@
         <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2313,10 +2313,10 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
@@ -2324,7 +2324,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
@@ -2332,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -2355,10 +2355,10 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
@@ -2366,7 +2366,7 @@
         <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H72">
         <v>1.5</v>
@@ -2375,10 +2375,10 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
@@ -2386,7 +2386,7 @@
         <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2395,10 +2395,10 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
@@ -2406,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
@@ -2414,7 +2414,7 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
@@ -2422,7 +2422,7 @@
         <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H77">
         <v>5</v>
@@ -2445,10 +2445,10 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
@@ -2456,7 +2456,7 @@
         <v>42</v>
       </c>
       <c r="F78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H78">
         <v>2.5</v>
@@ -2465,10 +2465,10 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
@@ -2476,7 +2476,7 @@
         <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
@@ -2496,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H80">
         <v>-1</v>
@@ -2510,7 +2510,7 @@
         <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -2533,10 +2533,10 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
@@ -2544,7 +2544,7 @@
         <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -2553,10 +2553,10 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
@@ -2564,7 +2564,7 @@
         <v>46</v>
       </c>
       <c r="F84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -2573,10 +2573,10 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
@@ -2584,7 +2584,7 @@
         <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -2607,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
@@ -2618,7 +2618,7 @@
         <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H87">
         <v>1.5</v>
@@ -2627,10 +2627,10 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
@@ -2638,7 +2638,7 @@
         <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -2647,10 +2647,10 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
@@ -2658,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
@@ -2666,7 +2666,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
@@ -2674,7 +2674,7 @@
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
@@ -2696,7 +2696,7 @@
         <v>6</v>
       </c>
       <c r="F93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H93">
         <v>-3</v>
@@ -2710,7 +2710,7 @@
         <v>17</v>
       </c>
       <c r="E94" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>50</v>
       </c>
       <c r="F95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H95">
         <v>0.5</v>
@@ -2733,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
@@ -2744,7 +2744,7 @@
         <v>51</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H96">
         <v>0.2</v>
@@ -2753,10 +2753,10 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
@@ -2764,7 +2764,7 @@
         <v>52</v>
       </c>
       <c r="F97" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
@@ -2784,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
@@ -2792,7 +2792,7 @@
         <v>18</v>
       </c>
       <c r="E99" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>53</v>
       </c>
       <c r="F100" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -2815,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
@@ -2826,7 +2826,7 @@
         <v>54</v>
       </c>
       <c r="F101" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H101">
         <v>0.5</v>
@@ -2835,10 +2835,10 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
@@ -2846,7 +2846,7 @@
         <v>55</v>
       </c>
       <c r="F102" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
@@ -2866,7 +2866,7 @@
         <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>56</v>
       </c>
       <c r="F104" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H104">
         <v>0.5</v>
@@ -2889,10 +2889,10 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
@@ -2900,7 +2900,7 @@
         <v>57</v>
       </c>
       <c r="F105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H105">
         <v>0.2</v>
@@ -2909,10 +2909,10 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
@@ -2920,7 +2920,7 @@
         <v>58</v>
       </c>
       <c r="F106" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -2929,10 +2929,10 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
@@ -2940,7 +2940,7 @@
         <v>20</v>
       </c>
       <c r="E107" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>59</v>
       </c>
       <c r="F108" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H108">
         <v>0.5</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
@@ -2974,7 +2974,7 @@
         <v>60</v>
       </c>
       <c r="F109" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
@@ -2994,7 +2994,7 @@
         <v>21</v>
       </c>
       <c r="E110" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>61</v>
       </c>
       <c r="F111" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H111">
         <v>0.5</v>
@@ -3017,10 +3017,10 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
@@ -3028,7 +3028,7 @@
         <v>62</v>
       </c>
       <c r="F112" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
@@ -3048,7 +3048,7 @@
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
@@ -3056,7 +3056,7 @@
         <v>22</v>
       </c>
       <c r="E114" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>63</v>
       </c>
       <c r="F115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -3079,10 +3079,10 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
@@ -3090,7 +3090,7 @@
         <v>64</v>
       </c>
       <c r="F116" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H116">
         <v>0.5</v>
@@ -3099,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
@@ -3110,7 +3110,7 @@
         <v>65</v>
       </c>
       <c r="F117" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
@@ -3130,7 +3130,7 @@
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
@@ -3138,7 +3138,7 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
@@ -3146,7 +3146,7 @@
         <v>23</v>
       </c>
       <c r="E120" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>66</v>
       </c>
       <c r="F121" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -3169,10 +3169,10 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
@@ -3180,7 +3180,7 @@
         <v>67</v>
       </c>
       <c r="F122" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -3189,10 +3189,10 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
@@ -3200,7 +3200,7 @@
         <v>68</v>
       </c>
       <c r="F123" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -3209,10 +3209,10 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
@@ -3220,7 +3220,7 @@
         <v>69</v>
       </c>
       <c r="F124" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
@@ -3240,7 +3240,7 @@
         <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
@@ -3248,7 +3248,7 @@
         <v>24</v>
       </c>
       <c r="E126" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>70</v>
       </c>
       <c r="F127" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H127">
         <v>0.5</v>
@@ -3271,10 +3271,10 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
@@ -3282,7 +3282,7 @@
         <v>71</v>
       </c>
       <c r="F128" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -3291,10 +3291,10 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
@@ -3302,7 +3302,7 @@
         <v>25</v>
       </c>
       <c r="E129" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>72</v>
       </c>
       <c r="F130" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H130">
         <v>0.5</v>
@@ -3325,10 +3325,10 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
@@ -3336,7 +3336,7 @@
         <v>73</v>
       </c>
       <c r="F131" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
@@ -3356,7 +3356,7 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
@@ -3364,7 +3364,7 @@
         <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.15">
@@ -3372,7 +3372,7 @@
         <v>26</v>
       </c>
       <c r="E134" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>74</v>
       </c>
       <c r="F135" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -3395,10 +3395,10 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
@@ -3406,7 +3406,7 @@
         <v>75</v>
       </c>
       <c r="F136" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H136">
         <v>0.3</v>
@@ -3415,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
@@ -3426,7 +3426,7 @@
         <v>76</v>
       </c>
       <c r="F137" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.15">
@@ -3446,7 +3446,7 @@
         <v>77</v>
       </c>
       <c r="F138" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
@@ -3466,7 +3466,7 @@
         <v>27</v>
       </c>
       <c r="E139" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>78</v>
       </c>
       <c r="F140" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -3489,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
@@ -3500,7 +3500,7 @@
         <v>79</v>
       </c>
       <c r="F141" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H141">
         <v>0.5</v>
@@ -3509,10 +3509,10 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.15">
@@ -3520,7 +3520,7 @@
         <v>80</v>
       </c>
       <c r="F142" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H142">
         <v>0.3</v>
@@ -3529,10 +3529,10 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.15">
@@ -3540,7 +3540,7 @@
         <v>81</v>
       </c>
       <c r="F143" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -3549,10 +3549,10 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
@@ -3560,7 +3560,7 @@
         <v>7</v>
       </c>
       <c r="F144" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H144">
         <v>-0.5</v>
@@ -3574,7 +3574,7 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
@@ -3582,7 +3582,7 @@
         <v>12</v>
       </c>
       <c r="D146" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.15">
@@ -3590,7 +3590,7 @@
         <v>28</v>
       </c>
       <c r="E147" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>82</v>
       </c>
       <c r="F148" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -3613,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.15">
@@ -3624,7 +3624,7 @@
         <v>83</v>
       </c>
       <c r="F149" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -3633,10 +3633,10 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.15">
@@ -3644,7 +3644,7 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.15">
@@ -3652,7 +3652,7 @@
         <v>13</v>
       </c>
       <c r="D151" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.15">
@@ -3660,7 +3660,7 @@
         <v>29</v>
       </c>
       <c r="E152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>84</v>
       </c>
       <c r="F153" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.15">
@@ -3694,7 +3694,7 @@
         <v>85</v>
       </c>
       <c r="F154" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H154">
         <v>0.5</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.15">
@@ -3714,7 +3714,7 @@
         <v>86</v>
       </c>
       <c r="F155" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.15">
@@ -3734,7 +3734,7 @@
         <v>87</v>
       </c>
       <c r="F156" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.15">
@@ -3754,7 +3754,7 @@
         <v>30</v>
       </c>
       <c r="E157" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>88</v>
       </c>
       <c r="F158" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H158">
         <v>0.5</v>
@@ -3777,10 +3777,10 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.15">
@@ -3788,7 +3788,7 @@
         <v>89</v>
       </c>
       <c r="F159" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -3797,10 +3797,10 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.15">
@@ -3808,7 +3808,7 @@
         <v>31</v>
       </c>
       <c r="E160" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>90</v>
       </c>
       <c r="F161" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H161">
         <v>0.5</v>
@@ -3831,10 +3831,10 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.15">
@@ -3842,7 +3842,7 @@
         <v>91</v>
       </c>
       <c r="F162" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -3851,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.15">
@@ -3862,7 +3862,7 @@
         <v>32</v>
       </c>
       <c r="E163" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>92</v>
       </c>
       <c r="F164" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H164">
         <v>0.5</v>
@@ -3885,10 +3885,10 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.15">
@@ -3896,7 +3896,7 @@
         <v>93</v>
       </c>
       <c r="F165" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -3905,10 +3905,10 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.15">
@@ -3916,7 +3916,7 @@
         <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.15">
@@ -3924,7 +3924,7 @@
         <v>33</v>
       </c>
       <c r="E167" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>94</v>
       </c>
       <c r="F168" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H168">
         <v>0.4</v>
@@ -3947,10 +3947,10 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.15">
@@ -3958,7 +3958,7 @@
         <v>95</v>
       </c>
       <c r="F169" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H169">
         <v>0.2</v>
@@ -3967,10 +3967,10 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K169" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.15">
@@ -3978,7 +3978,7 @@
         <v>96</v>
       </c>
       <c r="F170" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -3987,10 +3987,10 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.15">
@@ -3998,7 +3998,7 @@
         <v>97</v>
       </c>
       <c r="F171" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -4007,10 +4007,10 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.15">
@@ -4018,7 +4018,7 @@
         <v>34</v>
       </c>
       <c r="E172" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>98</v>
       </c>
       <c r="F173" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H173">
         <v>0.1</v>
@@ -4041,10 +4041,10 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.15">
@@ -4052,7 +4052,7 @@
         <v>99</v>
       </c>
       <c r="F174" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -4061,10 +4061,10 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.15">
@@ -4072,7 +4072,7 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.15">
@@ -4080,7 +4080,7 @@
         <v>15</v>
       </c>
       <c r="D176" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.15">
@@ -4088,7 +4088,7 @@
         <v>35</v>
       </c>
       <c r="E177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>100</v>
       </c>
       <c r="F178" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H178">
         <v>0.5</v>
@@ -4111,10 +4111,10 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.15">
@@ -4122,7 +4122,7 @@
         <v>101</v>
       </c>
       <c r="F179" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.15">
@@ -4142,7 +4142,7 @@
         <v>102</v>
       </c>
       <c r="F180" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -4151,10 +4151,10 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.15">
@@ -4162,7 +4162,7 @@
         <v>103</v>
       </c>
       <c r="F181" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -4171,10 +4171,10 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">
@@ -4182,7 +4182,7 @@
         <v>36</v>
       </c>
       <c r="E182" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>104</v>
       </c>
       <c r="F183" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H183">
         <v>0.3</v>
@@ -4205,10 +4205,10 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.15">
@@ -4216,7 +4216,7 @@
         <v>105</v>
       </c>
       <c r="F184" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.15">
@@ -4236,7 +4236,7 @@
         <v>37</v>
       </c>
       <c r="E185" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>106</v>
       </c>
       <c r="F186" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H186">
         <v>0.2</v>
@@ -4259,10 +4259,10 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K186" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.15">
@@ -4270,7 +4270,7 @@
         <v>107</v>
       </c>
       <c r="F187" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -4279,10 +4279,10 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K187" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.15">
@@ -4290,7 +4290,7 @@
         <v>38</v>
       </c>
       <c r="E188" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         <v>108</v>
       </c>
       <c r="F189" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H189">
         <v>0.5</v>
@@ -4313,10 +4313,10 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.15">
@@ -4324,7 +4324,7 @@
         <v>109</v>
       </c>
       <c r="F190" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -4333,10 +4333,10 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.15">
@@ -4344,7 +4344,7 @@
         <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.15">
@@ -4352,7 +4352,7 @@
         <v>39</v>
       </c>
       <c r="E192" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -4366,7 +4366,7 @@
         <v>110</v>
       </c>
       <c r="F193" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H193">
         <v>0.5</v>
@@ -4375,10 +4375,10 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K193" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.15">
@@ -4386,7 +4386,7 @@
         <v>111</v>
       </c>
       <c r="F194" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H194">
         <v>0.3</v>
@@ -4395,10 +4395,10 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.15">
@@ -4406,7 +4406,7 @@
         <v>112</v>
       </c>
       <c r="F195" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -4415,10 +4415,10 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.15">
@@ -4426,7 +4426,7 @@
         <v>113</v>
       </c>
       <c r="F196" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K196" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.15">
@@ -4446,7 +4446,7 @@
         <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.15">
@@ -4454,7 +4454,7 @@
         <v>17</v>
       </c>
       <c r="D198" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.15">
@@ -4462,7 +4462,7 @@
         <v>40</v>
       </c>
       <c r="E199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -4476,7 +4476,7 @@
         <v>114</v>
       </c>
       <c r="F200" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H200">
         <v>0.5</v>
@@ -4485,10 +4485,10 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.15">
@@ -4496,7 +4496,7 @@
         <v>115</v>
       </c>
       <c r="F201" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.15">
@@ -4516,7 +4516,7 @@
         <v>116</v>
       </c>
       <c r="F202" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -4525,10 +4525,10 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.15">
@@ -4536,7 +4536,7 @@
         <v>117</v>
       </c>
       <c r="F203" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -4545,10 +4545,10 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.15">
@@ -4556,7 +4556,7 @@
         <v>41</v>
       </c>
       <c r="E204" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -4570,7 +4570,7 @@
         <v>118</v>
       </c>
       <c r="F205" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H205">
         <v>0.3</v>
@@ -4579,10 +4579,10 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.15">
@@ -4590,7 +4590,7 @@
         <v>119</v>
       </c>
       <c r="F206" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -4599,10 +4599,10 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.15">
@@ -4610,7 +4610,7 @@
         <v>42</v>
       </c>
       <c r="E207" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>120</v>
       </c>
       <c r="F208" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H208">
         <v>0.2</v>
@@ -4633,10 +4633,10 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.15">
@@ -4644,7 +4644,7 @@
         <v>121</v>
       </c>
       <c r="F209" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -4653,10 +4653,10 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K209" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.15">
@@ -4664,7 +4664,7 @@
         <v>43</v>
       </c>
       <c r="E210" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>122</v>
       </c>
       <c r="F211" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H211">
         <v>0.5</v>
@@ -4687,10 +4687,10 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.15">
@@ -4698,7 +4698,7 @@
         <v>123</v>
       </c>
       <c r="F212" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -4707,10 +4707,10 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.15">
@@ -4718,7 +4718,7 @@
         <v>18</v>
       </c>
       <c r="D213" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.15">
@@ -4726,7 +4726,7 @@
         <v>44</v>
       </c>
       <c r="E214" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>124</v>
       </c>
       <c r="F215" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H215">
         <v>0.5</v>
@@ -4749,10 +4749,10 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.15">
@@ -4760,7 +4760,7 @@
         <v>125</v>
       </c>
       <c r="F216" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H216">
         <v>0.3</v>
@@ -4769,10 +4769,10 @@
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.15">
@@ -4780,7 +4780,7 @@
         <v>126</v>
       </c>
       <c r="F217" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -4789,10 +4789,10 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.15">
@@ -4800,7 +4800,7 @@
         <v>127</v>
       </c>
       <c r="F218" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -4809,10 +4809,10 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K218" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.15">
@@ -4820,7 +4820,7 @@
         <v>11</v>
       </c>
       <c r="C219" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.15">
@@ -4828,7 +4828,7 @@
         <v>19</v>
       </c>
       <c r="D220" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.15">
@@ -4836,7 +4836,7 @@
         <v>45</v>
       </c>
       <c r="E221" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -4850,7 +4850,7 @@
         <v>128</v>
       </c>
       <c r="F222" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H222">
         <v>0.5</v>
@@ -4859,10 +4859,10 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.15">
@@ -4870,7 +4870,7 @@
         <v>129</v>
       </c>
       <c r="F223" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -4879,10 +4879,10 @@
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.15">
@@ -4890,7 +4890,7 @@
         <v>130</v>
       </c>
       <c r="F224" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -4899,10 +4899,10 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K224" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.15">
@@ -4910,7 +4910,7 @@
         <v>131</v>
       </c>
       <c r="F225" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -4919,10 +4919,10 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K225" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.15">
@@ -4930,7 +4930,7 @@
         <v>46</v>
       </c>
       <c r="E226" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>132</v>
       </c>
       <c r="F227" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H227">
         <v>0.3</v>
@@ -4953,10 +4953,10 @@
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.15">
@@ -4964,7 +4964,7 @@
         <v>133</v>
       </c>
       <c r="F228" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -4973,10 +4973,10 @@
         <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K228" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.15">
@@ -4984,7 +4984,7 @@
         <v>47</v>
       </c>
       <c r="E229" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>134</v>
       </c>
       <c r="F230" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H230">
         <v>0.2</v>
@@ -5007,10 +5007,10 @@
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K230" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.15">
@@ -5018,7 +5018,7 @@
         <v>135</v>
       </c>
       <c r="F231" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -5027,10 +5027,10 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K231" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.15">
@@ -5038,7 +5038,7 @@
         <v>48</v>
       </c>
       <c r="E232" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>136</v>
       </c>
       <c r="F233" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H233">
         <v>0.5</v>
@@ -5061,10 +5061,10 @@
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K233" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.15">
@@ -5072,7 +5072,7 @@
         <v>137</v>
       </c>
       <c r="F234" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K234" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.15">
@@ -5092,7 +5092,7 @@
         <v>20</v>
       </c>
       <c r="D235" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.15">
@@ -5100,7 +5100,7 @@
         <v>49</v>
       </c>
       <c r="E236" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>138</v>
       </c>
       <c r="F237" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H237">
         <v>0.5</v>
@@ -5123,10 +5123,10 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K237" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.15">
@@ -5134,7 +5134,7 @@
         <v>139</v>
       </c>
       <c r="F238" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H238">
         <v>0.3</v>
@@ -5143,10 +5143,10 @@
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.15">
@@ -5154,7 +5154,7 @@
         <v>140</v>
       </c>
       <c r="F239" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.15">
@@ -5174,7 +5174,7 @@
         <v>141</v>
       </c>
       <c r="F240" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -5183,10 +5183,10 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.15">
@@ -5194,7 +5194,7 @@
         <v>4</v>
       </c>
       <c r="B241" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.15">
@@ -5202,7 +5202,7 @@
         <v>12</v>
       </c>
       <c r="C242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.15">
@@ -5210,7 +5210,7 @@
         <v>21</v>
       </c>
       <c r="D243" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.15">
@@ -5218,7 +5218,7 @@
         <v>50</v>
       </c>
       <c r="E244" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -5232,7 +5232,7 @@
         <v>142</v>
       </c>
       <c r="F245" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -5241,10 +5241,10 @@
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K245" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.15">
@@ -5252,7 +5252,7 @@
         <v>143</v>
       </c>
       <c r="F246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K246" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.15">
@@ -5272,7 +5272,7 @@
         <v>144</v>
       </c>
       <c r="F247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -5281,10 +5281,10 @@
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K247" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.15">
@@ -5292,7 +5292,7 @@
         <v>51</v>
       </c>
       <c r="E248" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -5306,7 +5306,7 @@
         <v>145</v>
       </c>
       <c r="F249" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -5315,10 +5315,10 @@
         <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K249" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.15">
@@ -5326,7 +5326,7 @@
         <v>146</v>
       </c>
       <c r="F250" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H250">
         <v>0.5</v>
@@ -5335,10 +5335,10 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K250" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.15">
@@ -5346,7 +5346,7 @@
         <v>147</v>
       </c>
       <c r="F251" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H251">
         <v>0.5</v>
@@ -5355,10 +5355,10 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K251" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.15">
@@ -5366,7 +5366,7 @@
         <v>148</v>
       </c>
       <c r="F252" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -5375,10 +5375,10 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K252" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.15">
@@ -5386,7 +5386,7 @@
         <v>52</v>
       </c>
       <c r="E253" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>149</v>
       </c>
       <c r="F254" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H254">
         <v>2</v>
@@ -5409,10 +5409,10 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K254" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.15">
@@ -5420,7 +5420,7 @@
         <v>150</v>
       </c>
       <c r="F255" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -5429,10 +5429,10 @@
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K255" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.15">
@@ -5440,7 +5440,7 @@
         <v>151</v>
       </c>
       <c r="F256" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H256">
         <v>1.5</v>
@@ -5449,10 +5449,10 @@
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K256" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.15">
@@ -5460,7 +5460,7 @@
         <v>152</v>
       </c>
       <c r="F257" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -5469,10 +5469,10 @@
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K257" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.15">
@@ -5480,7 +5480,7 @@
         <v>22</v>
       </c>
       <c r="D258" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.15">
@@ -5488,7 +5488,7 @@
         <v>53</v>
       </c>
       <c r="E259" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>153</v>
       </c>
       <c r="F260" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H260">
         <v>4</v>
@@ -5511,10 +5511,10 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K260" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.15">
@@ -5522,7 +5522,7 @@
         <v>154</v>
       </c>
       <c r="F261" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H261">
         <v>3</v>
@@ -5531,10 +5531,10 @@
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.15">
@@ -5542,7 +5542,7 @@
         <v>155</v>
       </c>
       <c r="F262" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -5551,10 +5551,10 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K262" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.15">
@@ -5562,7 +5562,7 @@
         <v>8</v>
       </c>
       <c r="F263" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H263">
         <v>-1</v>
@@ -5576,7 +5576,7 @@
         <v>9</v>
       </c>
       <c r="F264" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H264">
         <v>-1</v>
@@ -5590,7 +5590,7 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H265">
         <v>-1</v>
@@ -5604,7 +5604,7 @@
         <v>54</v>
       </c>
       <c r="E266" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>156</v>
       </c>
       <c r="F267" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H267">
         <v>5</v>
@@ -5627,10 +5627,10 @@
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K267" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.15">
@@ -5638,7 +5638,7 @@
         <v>157</v>
       </c>
       <c r="F268" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H268">
         <v>4</v>
@@ -5647,10 +5647,10 @@
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K268" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.15">
@@ -5658,7 +5658,7 @@
         <v>158</v>
       </c>
       <c r="F269" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -5667,10 +5667,10 @@
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K269" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.15">
@@ -5678,7 +5678,7 @@
         <v>11</v>
       </c>
       <c r="F270" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H270">
         <v>-1</v>
@@ -5692,7 +5692,7 @@
         <v>12</v>
       </c>
       <c r="F271" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H271">
         <v>-1</v>
@@ -5706,7 +5706,7 @@
         <v>13</v>
       </c>
       <c r="F272" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H272">
         <v>-1</v>
@@ -5720,7 +5720,7 @@
         <v>14</v>
       </c>
       <c r="F273" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H273">
         <v>-1</v>
@@ -5734,7 +5734,7 @@
         <v>55</v>
       </c>
       <c r="E274" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>159</v>
       </c>
       <c r="F275" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H275">
         <v>0.5</v>
@@ -5757,10 +5757,10 @@
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K275" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.15">
@@ -5768,7 +5768,7 @@
         <v>160</v>
       </c>
       <c r="F276" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H276">
         <v>0.3</v>
@@ -5777,10 +5777,10 @@
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K276" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.15">
@@ -5788,7 +5788,7 @@
         <v>161</v>
       </c>
       <c r="F277" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H277">
         <v>0</v>
@@ -5797,10 +5797,10 @@
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K277" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.15">
@@ -5808,7 +5808,7 @@
         <v>56</v>
       </c>
       <c r="E278" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G278">
         <v>0</v>
@@ -5822,7 +5822,7 @@
         <v>162</v>
       </c>
       <c r="F279" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H279">
         <v>0.5</v>
@@ -5831,10 +5831,10 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K279" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.15">
@@ -5842,7 +5842,7 @@
         <v>163</v>
       </c>
       <c r="F280" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H280">
         <v>0.3</v>
@@ -5851,10 +5851,10 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K280" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.15">
@@ -5862,7 +5862,7 @@
         <v>164</v>
       </c>
       <c r="F281" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -5871,10 +5871,10 @@
         <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K281" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.15">
@@ -5882,7 +5882,7 @@
         <v>23</v>
       </c>
       <c r="D282" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.15">
@@ -5890,7 +5890,7 @@
         <v>57</v>
       </c>
       <c r="E283" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -5904,7 +5904,7 @@
         <v>165</v>
       </c>
       <c r="F284" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H284">
         <v>1</v>
@@ -5913,10 +5913,10 @@
         <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K284" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.15">
@@ -5924,7 +5924,7 @@
         <v>166</v>
       </c>
       <c r="F285" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H285">
         <v>0.5</v>
@@ -5933,10 +5933,10 @@
         <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K285" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.15">
@@ -5944,7 +5944,7 @@
         <v>167</v>
       </c>
       <c r="F286" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H286">
         <v>0</v>
@@ -5953,10 +5953,10 @@
         <v>1</v>
       </c>
       <c r="J286" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K286" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.15">
@@ -5964,7 +5964,7 @@
         <v>13</v>
       </c>
       <c r="C287" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.15">
@@ -5972,7 +5972,7 @@
         <v>24</v>
       </c>
       <c r="D288" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.15">
@@ -5980,7 +5980,7 @@
         <v>58</v>
       </c>
       <c r="E289" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>168</v>
       </c>
       <c r="F290" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H290">
         <v>3</v>
@@ -6003,10 +6003,10 @@
         <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K290" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.15">
@@ -6014,7 +6014,7 @@
         <v>169</v>
       </c>
       <c r="F291" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H291">
         <v>1</v>
@@ -6023,10 +6023,10 @@
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K291" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.15">
@@ -6034,7 +6034,7 @@
         <v>170</v>
       </c>
       <c r="F292" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -6043,10 +6043,10 @@
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K292" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.15">
@@ -6054,7 +6054,7 @@
         <v>59</v>
       </c>
       <c r="E293" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>171</v>
       </c>
       <c r="F294" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H294">
         <v>3</v>
@@ -6077,10 +6077,10 @@
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K294" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.15">
@@ -6088,7 +6088,7 @@
         <v>172</v>
       </c>
       <c r="F295" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H295">
         <v>2</v>
@@ -6097,10 +6097,10 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K295" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.15">
@@ -6108,7 +6108,7 @@
         <v>173</v>
       </c>
       <c r="F296" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -6117,10 +6117,10 @@
         <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K296" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.15">
@@ -6128,7 +6128,7 @@
         <v>60</v>
       </c>
       <c r="E297" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>174</v>
       </c>
       <c r="F298" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -6151,10 +6151,10 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K298" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.15">
@@ -6162,7 +6162,7 @@
         <v>175</v>
       </c>
       <c r="F299" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -6171,10 +6171,10 @@
         <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.15">
@@ -6182,7 +6182,7 @@
         <v>176</v>
       </c>
       <c r="F300" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H300">
         <v>0</v>
@@ -6191,10 +6191,10 @@
         <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K300" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.15">
@@ -6202,7 +6202,7 @@
         <v>61</v>
       </c>
       <c r="E301" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>177</v>
       </c>
       <c r="F302" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H302">
         <v>1</v>
@@ -6225,10 +6225,10 @@
         <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K302" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.15">
@@ -6236,7 +6236,7 @@
         <v>178</v>
       </c>
       <c r="F303" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H303">
         <v>0.5</v>
@@ -6245,10 +6245,10 @@
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K303" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.15">
@@ -6256,7 +6256,7 @@
         <v>179</v>
       </c>
       <c r="F304" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -6265,10 +6265,10 @@
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K304" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.15">
@@ -6290,7 +6290,7 @@
         <v>15</v>
       </c>
       <c r="F306" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H306">
         <v>-2</v>
@@ -6304,7 +6304,7 @@
         <v>16</v>
       </c>
       <c r="F307" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H307">
         <v>-2</v>
@@ -6318,7 +6318,7 @@
         <v>14</v>
       </c>
       <c r="C308" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.15">
@@ -6326,7 +6326,7 @@
         <v>25</v>
       </c>
       <c r="D309" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.15">
@@ -6334,7 +6334,7 @@
         <v>63</v>
       </c>
       <c r="E310" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -6348,7 +6348,7 @@
         <v>180</v>
       </c>
       <c r="F311" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H311">
         <v>2</v>
@@ -6357,10 +6357,10 @@
         <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K311" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.15">
@@ -6368,7 +6368,7 @@
         <v>181</v>
       </c>
       <c r="F312" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -6377,10 +6377,10 @@
         <v>1</v>
       </c>
       <c r="J312" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K312" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.15">
@@ -6388,7 +6388,7 @@
         <v>182</v>
       </c>
       <c r="F313" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H313">
         <v>0</v>
@@ -6397,10 +6397,10 @@
         <v>1</v>
       </c>
       <c r="J313" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K313" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.15">
@@ -6408,7 +6408,7 @@
         <v>26</v>
       </c>
       <c r="D314" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.15">
@@ -6416,7 +6416,7 @@
         <v>64</v>
       </c>
       <c r="E315" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>183</v>
       </c>
       <c r="F316" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -6439,10 +6439,10 @@
         <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K316" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.15">
@@ -6450,7 +6450,7 @@
         <v>184</v>
       </c>
       <c r="F317" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H317">
         <v>0.5</v>
@@ -6459,10 +6459,10 @@
         <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K317" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.15">
@@ -6470,7 +6470,7 @@
         <v>185</v>
       </c>
       <c r="F318" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H318">
         <v>0</v>
@@ -6479,10 +6479,10 @@
         <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K318" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.15">
@@ -6490,7 +6490,7 @@
         <v>65</v>
       </c>
       <c r="E319" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -6504,7 +6504,7 @@
         <v>186</v>
       </c>
       <c r="F320" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -6513,10 +6513,10 @@
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K320" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.15">
@@ -6524,7 +6524,7 @@
         <v>187</v>
       </c>
       <c r="F321" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H321">
         <v>0.5</v>
@@ -6533,10 +6533,10 @@
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K321" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.15">
@@ -6544,7 +6544,7 @@
         <v>188</v>
       </c>
       <c r="F322" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -6553,10 +6553,10 @@
         <v>1</v>
       </c>
       <c r="J322" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K322" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.15">
@@ -6564,7 +6564,7 @@
         <v>66</v>
       </c>
       <c r="E323" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G323">
         <v>0</v>
@@ -6578,7 +6578,7 @@
         <v>189</v>
       </c>
       <c r="F324" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H324">
         <v>3</v>
@@ -6587,10 +6587,10 @@
         <v>1</v>
       </c>
       <c r="J324" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K324" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.15">
@@ -6598,7 +6598,7 @@
         <v>190</v>
       </c>
       <c r="F325" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H325">
         <v>0</v>
@@ -6607,10 +6607,10 @@
         <v>1</v>
       </c>
       <c r="J325" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K325" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.15">
@@ -6618,7 +6618,7 @@
         <v>5</v>
       </c>
       <c r="B326" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.15">
@@ -6626,7 +6626,7 @@
         <v>15</v>
       </c>
       <c r="C327" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.15">
@@ -6634,7 +6634,7 @@
         <v>27</v>
       </c>
       <c r="D328" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.15">
@@ -6642,7 +6642,7 @@
         <v>67</v>
       </c>
       <c r="E329" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G329">
         <v>0</v>
@@ -6656,7 +6656,7 @@
         <v>191</v>
       </c>
       <c r="F330" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H330">
         <v>0.3</v>
@@ -6665,10 +6665,10 @@
         <v>1</v>
       </c>
       <c r="J330" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K330" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.15">
@@ -6676,7 +6676,7 @@
         <v>192</v>
       </c>
       <c r="F331" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H331">
         <v>0.1</v>
@@ -6685,10 +6685,10 @@
         <v>1</v>
       </c>
       <c r="J331" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K331" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.15">
@@ -6696,7 +6696,7 @@
         <v>193</v>
       </c>
       <c r="F332" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -6705,10 +6705,10 @@
         <v>1</v>
       </c>
       <c r="J332" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K332" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.15">
@@ -6716,7 +6716,7 @@
         <v>194</v>
       </c>
       <c r="F333" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H333">
         <v>0</v>
@@ -6725,10 +6725,10 @@
         <v>1</v>
       </c>
       <c r="J333" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K333" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.15">
@@ -6736,7 +6736,7 @@
         <v>68</v>
       </c>
       <c r="E334" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G334">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>195</v>
       </c>
       <c r="F335" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H335">
         <v>0.3</v>
@@ -6759,10 +6759,10 @@
         <v>1</v>
       </c>
       <c r="J335" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K335" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.15">
@@ -6770,7 +6770,7 @@
         <v>196</v>
       </c>
       <c r="F336" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H336">
         <v>0.1</v>
@@ -6779,10 +6779,10 @@
         <v>1</v>
       </c>
       <c r="J336" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K336" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.15">
@@ -6790,7 +6790,7 @@
         <v>197</v>
       </c>
       <c r="F337" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H337">
         <v>0</v>
@@ -6799,10 +6799,10 @@
         <v>1</v>
       </c>
       <c r="J337" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K337" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.15">
@@ -6810,7 +6810,7 @@
         <v>69</v>
       </c>
       <c r="E338" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G338">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>198</v>
       </c>
       <c r="F339" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H339">
         <v>0.4</v>
@@ -6833,10 +6833,10 @@
         <v>1</v>
       </c>
       <c r="J339" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K339" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.15">
@@ -6844,7 +6844,7 @@
         <v>199</v>
       </c>
       <c r="F340" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H340">
         <v>0.2</v>
@@ -6853,10 +6853,10 @@
         <v>1</v>
       </c>
       <c r="J340" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K340" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.15">
@@ -6864,7 +6864,7 @@
         <v>200</v>
       </c>
       <c r="F341" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H341">
         <v>0.1</v>
@@ -6873,10 +6873,10 @@
         <v>1</v>
       </c>
       <c r="J341" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K341" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.15">
@@ -6884,7 +6884,7 @@
         <v>201</v>
       </c>
       <c r="F342" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H342">
         <v>0</v>
@@ -6893,10 +6893,10 @@
         <v>1</v>
       </c>
       <c r="J342" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K342" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.15">
@@ -6904,7 +6904,7 @@
         <v>28</v>
       </c>
       <c r="D343" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.15">
@@ -6912,7 +6912,7 @@
         <v>70</v>
       </c>
       <c r="E344" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G344">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>202</v>
       </c>
       <c r="F345" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H345">
         <v>0.5</v>
@@ -6935,10 +6935,10 @@
         <v>1</v>
       </c>
       <c r="J345" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K345" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.15">
@@ -6946,7 +6946,7 @@
         <v>203</v>
       </c>
       <c r="F346" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H346">
         <v>0.2</v>
@@ -6955,10 +6955,10 @@
         <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K346" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.15">
@@ -6966,7 +6966,7 @@
         <v>204</v>
       </c>
       <c r="F347" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -6975,10 +6975,10 @@
         <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K347" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.15">
@@ -6986,7 +6986,7 @@
         <v>71</v>
       </c>
       <c r="E348" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G348">
         <v>0</v>
@@ -7000,7 +7000,7 @@
         <v>205</v>
       </c>
       <c r="F349" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H349">
         <v>0.5</v>
@@ -7009,10 +7009,10 @@
         <v>1</v>
       </c>
       <c r="J349" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K349" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.15">
@@ -7020,7 +7020,7 @@
         <v>206</v>
       </c>
       <c r="F350" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H350">
         <v>0.5</v>
@@ -7029,10 +7029,10 @@
         <v>1</v>
       </c>
       <c r="J350" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K350" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.15">
@@ -7040,7 +7040,7 @@
         <v>207</v>
       </c>
       <c r="F351" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H351">
         <v>0.25</v>
@@ -7049,10 +7049,10 @@
         <v>1</v>
       </c>
       <c r="J351" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K351" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.15">
@@ -7060,7 +7060,7 @@
         <v>208</v>
       </c>
       <c r="F352" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H352">
         <v>0</v>
@@ -7069,10 +7069,10 @@
         <v>1</v>
       </c>
       <c r="J352" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K352" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.15">
@@ -7080,7 +7080,7 @@
         <v>72</v>
       </c>
       <c r="E353" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G353">
         <v>0</v>
@@ -7094,7 +7094,7 @@
         <v>209</v>
       </c>
       <c r="F354" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -7103,10 +7103,10 @@
         <v>1</v>
       </c>
       <c r="J354" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K354" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.15">
@@ -7114,7 +7114,7 @@
         <v>210</v>
       </c>
       <c r="F355" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H355">
         <v>1</v>
@@ -7123,10 +7123,10 @@
         <v>1</v>
       </c>
       <c r="J355" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K355" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.15">
@@ -7134,7 +7134,7 @@
         <v>211</v>
       </c>
       <c r="F356" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H356">
         <v>0.5</v>
@@ -7143,10 +7143,10 @@
         <v>1</v>
       </c>
       <c r="J356" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K356" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.15">
@@ -7154,7 +7154,7 @@
         <v>212</v>
       </c>
       <c r="F357" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H357">
         <v>0.5</v>
@@ -7163,10 +7163,10 @@
         <v>1</v>
       </c>
       <c r="J357" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K357" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.15">
@@ -7174,7 +7174,7 @@
         <v>213</v>
       </c>
       <c r="F358" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H358">
         <v>0</v>
@@ -7183,10 +7183,10 @@
         <v>1</v>
       </c>
       <c r="J358" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K358" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.15">
@@ -7194,7 +7194,7 @@
         <v>73</v>
       </c>
       <c r="E359" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>214</v>
       </c>
       <c r="F360" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H360">
         <v>1</v>
@@ -7217,10 +7217,10 @@
         <v>1</v>
       </c>
       <c r="J360" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K360" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.15">
@@ -7228,7 +7228,7 @@
         <v>215</v>
       </c>
       <c r="F361" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H361">
         <v>0.5</v>
@@ -7237,10 +7237,10 @@
         <v>1</v>
       </c>
       <c r="J361" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K361" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.15">
@@ -7248,7 +7248,7 @@
         <v>216</v>
       </c>
       <c r="F362" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H362">
         <v>0.5</v>
@@ -7257,10 +7257,10 @@
         <v>1</v>
       </c>
       <c r="J362" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K362" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.15">
@@ -7268,7 +7268,7 @@
         <v>217</v>
       </c>
       <c r="F363" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H363">
         <v>0</v>
@@ -7277,10 +7277,10 @@
         <v>1</v>
       </c>
       <c r="J363" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K363" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.15">
@@ -7288,7 +7288,7 @@
         <v>74</v>
       </c>
       <c r="E364" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G364">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         <v>218</v>
       </c>
       <c r="F365" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H365">
         <v>1</v>
@@ -7311,10 +7311,10 @@
         <v>1</v>
       </c>
       <c r="J365" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K365" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.15">
@@ -7322,7 +7322,7 @@
         <v>219</v>
       </c>
       <c r="F366" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H366">
         <v>0.5</v>
@@ -7331,10 +7331,10 @@
         <v>1</v>
       </c>
       <c r="J366" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K366" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.15">
@@ -7342,7 +7342,7 @@
         <v>220</v>
       </c>
       <c r="F367" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H367">
         <v>0</v>
@@ -7351,10 +7351,10 @@
         <v>1</v>
       </c>
       <c r="J367" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K367" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.15">
@@ -7362,7 +7362,7 @@
         <v>29</v>
       </c>
       <c r="D368" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.15">
@@ -7370,7 +7370,7 @@
         <v>75</v>
       </c>
       <c r="E369" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G369">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         <v>221</v>
       </c>
       <c r="F370" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H370">
         <v>1</v>
@@ -7393,10 +7393,10 @@
         <v>1</v>
       </c>
       <c r="J370" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K370" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.15">
@@ -7404,7 +7404,7 @@
         <v>222</v>
       </c>
       <c r="F371" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H371">
         <v>0.5</v>
@@ -7413,10 +7413,10 @@
         <v>1</v>
       </c>
       <c r="J371" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K371" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.15">
@@ -7424,7 +7424,7 @@
         <v>223</v>
       </c>
       <c r="F372" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H372">
         <v>0</v>
@@ -7433,10 +7433,10 @@
         <v>1</v>
       </c>
       <c r="J372" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K372" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.15">
@@ -7444,7 +7444,7 @@
         <v>16</v>
       </c>
       <c r="C373" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.15">
@@ -7452,7 +7452,7 @@
         <v>30</v>
       </c>
       <c r="D374" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.15">
@@ -7460,7 +7460,7 @@
         <v>76</v>
       </c>
       <c r="E375" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G375">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>224</v>
       </c>
       <c r="F376" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H376">
         <v>1.5</v>
@@ -7483,10 +7483,10 @@
         <v>1</v>
       </c>
       <c r="J376" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K376" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.15">
@@ -7494,7 +7494,7 @@
         <v>225</v>
       </c>
       <c r="F377" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H377">
         <v>0</v>
@@ -7503,10 +7503,10 @@
         <v>1</v>
       </c>
       <c r="J377" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K377" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.15">
@@ -7514,7 +7514,7 @@
         <v>17</v>
       </c>
       <c r="F378" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H378">
         <v>-1</v>
@@ -7528,7 +7528,7 @@
         <v>77</v>
       </c>
       <c r="E379" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -7542,7 +7542,7 @@
         <v>226</v>
       </c>
       <c r="F380" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H380">
         <v>1</v>
@@ -7551,10 +7551,10 @@
         <v>1</v>
       </c>
       <c r="J380" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K380" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.15">
@@ -7562,7 +7562,7 @@
         <v>227</v>
       </c>
       <c r="F381" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H381">
         <v>1</v>
@@ -7571,10 +7571,10 @@
         <v>1</v>
       </c>
       <c r="J381" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K381" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.15">
@@ -7582,7 +7582,7 @@
         <v>228</v>
       </c>
       <c r="F382" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H382">
         <v>0</v>
@@ -7591,10 +7591,10 @@
         <v>1</v>
       </c>
       <c r="J382" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K382" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.15">
@@ -7602,7 +7602,7 @@
         <v>78</v>
       </c>
       <c r="E383" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G383">
         <v>0</v>
@@ -7616,7 +7616,7 @@
         <v>229</v>
       </c>
       <c r="F384" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H384">
         <v>1.5</v>
@@ -7625,10 +7625,10 @@
         <v>1</v>
       </c>
       <c r="J384" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K384" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.15">
@@ -7636,7 +7636,7 @@
         <v>230</v>
       </c>
       <c r="F385" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H385">
         <v>0.7</v>
@@ -7645,10 +7645,10 @@
         <v>1</v>
       </c>
       <c r="J385" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K385" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.15">
@@ -7656,7 +7656,7 @@
         <v>231</v>
       </c>
       <c r="F386" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H386">
         <v>0</v>
@@ -7665,10 +7665,10 @@
         <v>1</v>
       </c>
       <c r="J386" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K386" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.15">
@@ -7676,7 +7676,7 @@
         <v>17</v>
       </c>
       <c r="C387" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.15">
@@ -7684,7 +7684,7 @@
         <v>31</v>
       </c>
       <c r="D388" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.15">
@@ -7706,7 +7706,7 @@
         <v>18</v>
       </c>
       <c r="F390" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H390">
         <v>-1</v>
@@ -7720,7 +7720,7 @@
         <v>80</v>
       </c>
       <c r="E391" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G391">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>232</v>
       </c>
       <c r="F392" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H392">
         <v>1</v>
@@ -7743,10 +7743,10 @@
         <v>1</v>
       </c>
       <c r="J392" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K392" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.15">
@@ -7754,7 +7754,7 @@
         <v>233</v>
       </c>
       <c r="F393" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H393">
         <v>0.5</v>
@@ -7763,10 +7763,10 @@
         <v>1</v>
       </c>
       <c r="J393" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K393" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.15">
@@ -7774,7 +7774,7 @@
         <v>234</v>
       </c>
       <c r="F394" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H394">
         <v>0</v>
@@ -7783,10 +7783,10 @@
         <v>1</v>
       </c>
       <c r="J394" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K394" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.15">
@@ -7794,7 +7794,7 @@
         <v>32</v>
       </c>
       <c r="D395" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.15">
@@ -7802,7 +7802,7 @@
         <v>81</v>
       </c>
       <c r="E396" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G396">
         <v>0</v>
@@ -7816,7 +7816,7 @@
         <v>235</v>
       </c>
       <c r="F397" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H397">
         <v>0.5</v>
@@ -7825,10 +7825,10 @@
         <v>1</v>
       </c>
       <c r="J397" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K397" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.15">
@@ -7836,7 +7836,7 @@
         <v>236</v>
       </c>
       <c r="F398" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H398">
         <v>0</v>
@@ -7845,10 +7845,10 @@
         <v>1</v>
       </c>
       <c r="J398" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K398" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.15">
@@ -7856,7 +7856,7 @@
         <v>82</v>
       </c>
       <c r="E399" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G399">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>237</v>
       </c>
       <c r="F400" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H400">
         <v>0.5</v>
@@ -7879,10 +7879,10 @@
         <v>1</v>
       </c>
       <c r="J400" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K400" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.15">
@@ -7890,7 +7890,7 @@
         <v>238</v>
       </c>
       <c r="F401" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H401">
         <v>0</v>
@@ -7899,10 +7899,10 @@
         <v>1</v>
       </c>
       <c r="J401" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K401" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.15">
@@ -7910,7 +7910,7 @@
         <v>83</v>
       </c>
       <c r="E402" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -7924,7 +7924,7 @@
         <v>239</v>
       </c>
       <c r="F403" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H403">
         <v>1</v>
@@ -7933,10 +7933,10 @@
         <v>1</v>
       </c>
       <c r="J403" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K403" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.15">
@@ -7944,7 +7944,7 @@
         <v>240</v>
       </c>
       <c r="F404" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H404">
         <v>0.5</v>
@@ -7953,10 +7953,10 @@
         <v>1</v>
       </c>
       <c r="J404" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K404" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.15">
@@ -7964,7 +7964,7 @@
         <v>241</v>
       </c>
       <c r="F405" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H405">
         <v>0</v>
@@ -7973,10 +7973,10 @@
         <v>1</v>
       </c>
       <c r="J405" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K405" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.15">
@@ -7984,7 +7984,7 @@
         <v>84</v>
       </c>
       <c r="E406" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G406">
         <v>0</v>
@@ -7998,7 +7998,7 @@
         <v>242</v>
       </c>
       <c r="F407" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H407">
         <v>1</v>
@@ -8007,10 +8007,10 @@
         <v>1</v>
       </c>
       <c r="J407" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K407" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.15">
@@ -8018,7 +8018,7 @@
         <v>243</v>
       </c>
       <c r="F408" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H408">
         <v>0.5</v>
@@ -8027,10 +8027,10 @@
         <v>1</v>
       </c>
       <c r="J408" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K408" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.15">
@@ -8038,7 +8038,7 @@
         <v>244</v>
       </c>
       <c r="F409" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H409">
         <v>0</v>
@@ -8047,10 +8047,10 @@
         <v>1</v>
       </c>
       <c r="J409" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K409" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.15">
@@ -8058,7 +8058,7 @@
         <v>85</v>
       </c>
       <c r="E410" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>245</v>
       </c>
       <c r="F411" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H411">
         <v>2</v>
@@ -8081,10 +8081,10 @@
         <v>1</v>
       </c>
       <c r="J411" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K411" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.15">
@@ -8092,7 +8092,7 @@
         <v>246</v>
       </c>
       <c r="F412" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H412">
         <v>1</v>
@@ -8101,10 +8101,10 @@
         <v>1</v>
       </c>
       <c r="J412" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K412" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.15">
@@ -8112,7 +8112,7 @@
         <v>247</v>
       </c>
       <c r="F413" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H413">
         <v>0.5</v>
@@ -8121,10 +8121,10 @@
         <v>1</v>
       </c>
       <c r="J413" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K413" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.15">
@@ -8132,7 +8132,7 @@
         <v>248</v>
       </c>
       <c r="F414" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H414">
         <v>0</v>
@@ -8141,10 +8141,10 @@
         <v>1</v>
       </c>
       <c r="J414" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K414" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.15">
@@ -8152,7 +8152,7 @@
         <v>18</v>
       </c>
       <c r="C415" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.15">
@@ -8160,7 +8160,7 @@
         <v>33</v>
       </c>
       <c r="D416" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.15">
@@ -8168,7 +8168,7 @@
         <v>86</v>
       </c>
       <c r="E417" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G417">
         <v>0</v>
@@ -8182,7 +8182,7 @@
         <v>249</v>
       </c>
       <c r="F418" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H418">
         <v>1.5</v>
@@ -8191,10 +8191,10 @@
         <v>1</v>
       </c>
       <c r="J418" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K418" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.15">
@@ -8202,7 +8202,7 @@
         <v>250</v>
       </c>
       <c r="F419" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H419">
         <v>0</v>
@@ -8211,10 +8211,10 @@
         <v>1</v>
       </c>
       <c r="J419" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K419" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.15">
@@ -8222,7 +8222,7 @@
         <v>19</v>
       </c>
       <c r="F420" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H420">
         <v>-1</v>
@@ -8236,7 +8236,7 @@
         <v>87</v>
       </c>
       <c r="E421" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G421">
         <v>0</v>
@@ -8250,7 +8250,7 @@
         <v>251</v>
       </c>
       <c r="F422" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H422">
         <v>1</v>
@@ -8259,10 +8259,10 @@
         <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K422" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.15">
@@ -8270,7 +8270,7 @@
         <v>252</v>
       </c>
       <c r="F423" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H423">
         <v>0</v>
@@ -8279,10 +8279,10 @@
         <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K423" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.15">
@@ -8290,7 +8290,7 @@
         <v>253</v>
       </c>
       <c r="F424" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H424">
         <v>0</v>
@@ -8299,10 +8299,10 @@
         <v>1</v>
       </c>
       <c r="J424" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K424" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.15">
@@ -8310,7 +8310,7 @@
         <v>88</v>
       </c>
       <c r="E425" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -8324,7 +8324,7 @@
         <v>254</v>
       </c>
       <c r="F426" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H426">
         <v>1.5</v>
@@ -8333,10 +8333,10 @@
         <v>1</v>
       </c>
       <c r="J426" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K426" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.15">
@@ -8344,7 +8344,7 @@
         <v>255</v>
       </c>
       <c r="F427" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H427">
         <v>1</v>
@@ -8353,10 +8353,10 @@
         <v>1</v>
       </c>
       <c r="J427" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K427" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.15">
@@ -8364,7 +8364,7 @@
         <v>256</v>
       </c>
       <c r="F428" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H428">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>1</v>
       </c>
       <c r="J428" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K428" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.15">
@@ -8384,7 +8384,7 @@
         <v>6</v>
       </c>
       <c r="B429" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.15">
@@ -8392,7 +8392,7 @@
         <v>19</v>
       </c>
       <c r="C430" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.15">
@@ -8400,7 +8400,7 @@
         <v>34</v>
       </c>
       <c r="D431" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.15">
@@ -8408,7 +8408,7 @@
         <v>89</v>
       </c>
       <c r="E432" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G432">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>257</v>
       </c>
       <c r="F433" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H433">
         <v>5</v>
@@ -8431,10 +8431,10 @@
         <v>1</v>
       </c>
       <c r="J433" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K433" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.15">
@@ -8442,7 +8442,7 @@
         <v>258</v>
       </c>
       <c r="F434" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H434">
         <v>0</v>
@@ -8451,10 +8451,10 @@
         <v>1</v>
       </c>
       <c r="J434" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K434" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.15">
@@ -8462,7 +8462,7 @@
         <v>259</v>
       </c>
       <c r="F435" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H435">
         <v>0</v>
@@ -8471,10 +8471,10 @@
         <v>1</v>
       </c>
       <c r="J435" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K435" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.15">
@@ -8482,7 +8482,7 @@
         <v>260</v>
       </c>
       <c r="F436" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H436">
         <v>0</v>
@@ -8491,10 +8491,10 @@
         <v>1</v>
       </c>
       <c r="J436" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K436" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.15">
@@ -8502,7 +8502,7 @@
         <v>261</v>
       </c>
       <c r="F437" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H437">
         <v>0</v>
@@ -8511,10 +8511,10 @@
         <v>1</v>
       </c>
       <c r="J437" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K437" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Herramienta/static/files/Actividad.xlsx
+++ b/Herramienta/static/files/Actividad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiton/Desktop/Universidad/TesisIIND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A27BD3-6FD2-5D49-8E32-33C88288BFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF22FAC-9A46-854D-9B01-179D72911E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -849,7 +849,7 @@
     <t>Bono 1</t>
   </si>
   <si>
-    <t>2014-10 Prueba 2</t>
+    <t>2014-10 Prueba 3</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">

--- a/Herramienta/static/files/Actividad.xlsx
+++ b/Herramienta/static/files/Actividad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiton/Desktop/Universidad/TesisIIND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF22FAC-9A46-854D-9B01-179D72911E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD136C-FEA7-8640-922F-7C3F36D5466D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -849,7 +849,7 @@
     <t>Bono 1</t>
   </si>
   <si>
-    <t>2014-10 Prueba 3</t>
+    <t>2014-10 Prueba 2</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">

--- a/Herramienta/static/files/Actividad.xlsx
+++ b/Herramienta/static/files/Actividad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiton/Desktop/Universidad/TesisIIND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD136C-FEA7-8640-922F-7C3F36D5466D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DCE096-9D83-654F-87D7-3B535FFAA48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -849,7 +849,7 @@
     <t>Bono 1</t>
   </si>
   <si>
-    <t>2014-10 Prueba 2</t>
+    <t>2014-10 Prueba 3</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:K437"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1275,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">

--- a/Herramienta/static/files/Actividad.xlsx
+++ b/Herramienta/static/files/Actividad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiton/Desktop/Universidad/TesisIIND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BCCB87-1E07-7A44-AA1A-B1951988DBCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DC562C-8D82-2E43-8894-CF5D2229F5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>202020</v>
+        <v>201920</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">

--- a/Herramienta/static/files/Actividad.xlsx
+++ b/Herramienta/static/files/Actividad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiton/Desktop/Universidad/TesisIIND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DC562C-8D82-2E43-8894-CF5D2229F5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962D4D1A-FB21-FD4F-8537-55F2D01A2463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:K433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>201920</v>
+        <v>202010</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">

--- a/Herramienta/static/files/Actividad.xlsx
+++ b/Herramienta/static/files/Actividad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiton/Desktop/Universidad/TesisIIND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962D4D1A-FB21-FD4F-8537-55F2D01A2463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9606CC18-C31C-954A-BF23-977B9735BF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="267">
   <si>
     <t>Nombre:</t>
   </si>
   <si>
-    <t>ID Semestre:</t>
-  </si>
-  <si>
     <t>Porcentaje sobre la nota:</t>
   </si>
   <si>
@@ -831,7 +828,7 @@
     <t>Bono 1</t>
   </si>
   <si>
-    <t>2014-10 Prueba 4</t>
+    <t>Tarea 1</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K433"/>
+  <dimension ref="A1:K432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1201,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -1209,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>202010</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -1217,49 +1214,49 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.04</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1267,43 +1264,49 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>15</v>
+      </c>
+      <c r="G8">
+        <v>-20</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="G9">
-        <v>-20</v>
-      </c>
       <c r="H9">
-        <v>0</v>
+        <v>-5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -1317,7 +1320,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -1331,7 +1334,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -1345,31 +1348,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13">
-        <v>-5</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>263</v>
+      <c r="C14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1377,67 +1374,79 @@
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>22</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
       <c r="H19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
@@ -1449,143 +1458,143 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
         <v>29</v>
       </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
         <v>30</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
         <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
         <v>31</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
         <v>32</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
         <v>33</v>
       </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
         <v>34</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
         <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
         <v>35</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
         <v>36</v>
@@ -1597,245 +1606,242 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
         <v>37</v>
       </c>
       <c r="H29">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
         <v>39</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
         <v>40</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
         <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
         <v>41</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
       </c>
       <c r="H34">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
         <v>43</v>
       </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
       <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
       </c>
       <c r="H36">
         <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
         <v>41</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
       </c>
       <c r="H38">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="F39" t="s">
-        <v>43</v>
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
         <v>45</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
         <v>46</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F42" t="s">
         <v>47</v>
@@ -1847,257 +1853,257 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>21</v>
-      </c>
-      <c r="F44" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
         <v>49</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F46" t="s">
         <v>50</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H47">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>25</v>
-      </c>
-      <c r="F49" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H52">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>29</v>
-      </c>
-      <c r="F54" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>10</v>
-      </c>
-      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" t="s">
         <v>54</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
       </c>
       <c r="H55">
         <v>4</v>
       </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
         <v>55</v>
@@ -2109,1045 +2115,1045 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
         <v>56</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H59">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>34</v>
-      </c>
-      <c r="F60" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>25</v>
-      </c>
-      <c r="K60" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>11</v>
-      </c>
-      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
         <v>58</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
         <v>59</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
         <v>60</v>
       </c>
       <c r="H63">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>37</v>
-      </c>
-      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
         <v>61</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>25</v>
-      </c>
-      <c r="K64" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>4</v>
-      </c>
-      <c r="D65" t="s">
-        <v>62</v>
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>12</v>
-      </c>
-      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
         <v>62</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
       </c>
       <c r="H66">
         <v>3</v>
       </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
         <v>63</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
         <v>64</v>
       </c>
       <c r="H68">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>40</v>
-      </c>
-      <c r="F69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
         <v>65</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69" t="s">
-        <v>25</v>
-      </c>
-      <c r="K69" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>5</v>
-      </c>
-      <c r="D71" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>13</v>
-      </c>
-      <c r="E72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s">
         <v>68</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
       </c>
       <c r="H72">
         <v>5</v>
       </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
         <v>69</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
         <v>70</v>
       </c>
       <c r="H74">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
         <v>71</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I75">
         <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>25</v>
-      </c>
-      <c r="K75" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>5</v>
-      </c>
-      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
         <v>72</v>
       </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
       <c r="H76">
-        <v>-1</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>14</v>
-      </c>
-      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
         <v>73</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
       </c>
       <c r="H77">
         <v>2</v>
       </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
         <v>74</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
         <v>75</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>46</v>
-      </c>
-      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
         <v>76</v>
       </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
       <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80" t="s">
-        <v>25</v>
-      </c>
-      <c r="K80" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>15</v>
-      </c>
-      <c r="E81" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" t="s">
         <v>77</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F82" t="s">
         <v>78</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F83" t="s">
         <v>79</v>
       </c>
       <c r="H83">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>49</v>
-      </c>
-      <c r="F84" t="s">
-        <v>80</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84" t="s">
-        <v>25</v>
-      </c>
-      <c r="K84" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>3</v>
-      </c>
-      <c r="B85" t="s">
-        <v>264</v>
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>4</v>
-      </c>
-      <c r="C86" t="s">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>6</v>
-      </c>
-      <c r="D87" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87">
+        <v>-3</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>16</v>
-      </c>
-      <c r="E88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>81</v>
+      </c>
+      <c r="H88">
         <v>-3</v>
       </c>
-      <c r="H88">
-        <v>0</v>
+      <c r="I88">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s">
         <v>82</v>
       </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
       <c r="H89">
-        <v>-3</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>17</v>
-      </c>
-      <c r="E90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F90" t="s">
         <v>83</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
       </c>
       <c r="H90">
         <v>0.5</v>
       </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>24</v>
+      </c>
+      <c r="K90" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F91" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H91">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H92">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>52</v>
-      </c>
-      <c r="F93" t="s">
-        <v>85</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93" t="s">
-        <v>25</v>
-      </c>
-      <c r="K93" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>7</v>
-      </c>
-      <c r="D94" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="E94" t="s">
+        <v>85</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>18</v>
-      </c>
-      <c r="E95" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" t="s">
         <v>86</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
       <c r="H95">
         <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F96" t="s">
         <v>87</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F97" t="s">
         <v>88</v>
       </c>
       <c r="H97">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>55</v>
-      </c>
-      <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
         <v>89</v>
       </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
       <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98" t="s">
-        <v>25</v>
-      </c>
-      <c r="K98" t="s">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>19</v>
-      </c>
-      <c r="E99" t="s">
+        <v>56</v>
+      </c>
+      <c r="F99" t="s">
         <v>90</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
       </c>
       <c r="H99">
         <v>0.5</v>
       </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>24</v>
+      </c>
+      <c r="K99" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F100" t="s">
         <v>91</v>
       </c>
       <c r="H100">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F101" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H101">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>58</v>
-      </c>
-      <c r="F102" t="s">
-        <v>89</v>
+        <v>20</v>
+      </c>
+      <c r="E102" t="s">
+        <v>92</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102" t="s">
-        <v>25</v>
-      </c>
-      <c r="K102" t="s">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>20</v>
-      </c>
-      <c r="E103" t="s">
+        <v>59</v>
+      </c>
+      <c r="F103" t="s">
         <v>93</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
       </c>
       <c r="H103">
         <v>0.5</v>
       </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K103" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F104" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H104">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>60</v>
-      </c>
-      <c r="F105" t="s">
-        <v>89</v>
+        <v>21</v>
+      </c>
+      <c r="E105" t="s">
+        <v>94</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105" t="s">
-        <v>25</v>
-      </c>
-      <c r="K105" t="s">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>21</v>
-      </c>
-      <c r="E106" t="s">
+        <v>61</v>
+      </c>
+      <c r="F106" t="s">
         <v>95</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
       </c>
       <c r="H106">
         <v>0.5</v>
       </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>24</v>
+      </c>
+      <c r="K106" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F107" t="s">
         <v>96</v>
       </c>
       <c r="H107">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>62</v>
-      </c>
-      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
         <v>97</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-      <c r="J108" t="s">
-        <v>25</v>
-      </c>
-      <c r="K108" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>8</v>
-      </c>
-      <c r="D109" t="s">
-        <v>98</v>
+        <v>22</v>
+      </c>
+      <c r="E109" t="s">
+        <v>97</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>22</v>
-      </c>
-      <c r="E110" t="s">
+        <v>63</v>
+      </c>
+      <c r="F110" t="s">
         <v>98</v>
       </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
       <c r="H110">
         <v>1</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K110" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F111" t="s">
         <v>99</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F112" t="s">
         <v>100</v>
       </c>
       <c r="H112">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>65</v>
-      </c>
-      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
         <v>101</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c r="J113" t="s">
-        <v>25</v>
-      </c>
-      <c r="K113" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>5</v>
-      </c>
-      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>9</v>
-      </c>
-      <c r="D115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" t="s">
         <v>103</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>23</v>
-      </c>
-      <c r="E116" t="s">
+        <v>66</v>
+      </c>
+      <c r="F116" t="s">
         <v>104</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>24</v>
+      </c>
+      <c r="K116" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F117" t="s">
         <v>105</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F118" t="s">
         <v>106</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F119" t="s">
         <v>107</v>
@@ -3159,221 +3165,221 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>69</v>
-      </c>
-      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
         <v>108</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c r="J120" t="s">
-        <v>25</v>
-      </c>
-      <c r="K120" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>10</v>
-      </c>
-      <c r="D121" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" t="s">
         <v>109</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0.5</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>24</v>
-      </c>
-      <c r="E122" t="s">
+        <v>70</v>
+      </c>
+      <c r="F122" t="s">
         <v>110</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
       </c>
       <c r="H122">
         <v>0.5</v>
       </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>24</v>
+      </c>
+      <c r="K122" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F123" t="s">
         <v>111</v>
       </c>
       <c r="H123">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>71</v>
-      </c>
-      <c r="F124" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" t="s">
         <v>112</v>
       </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
       <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-      <c r="J124" t="s">
-        <v>25</v>
-      </c>
-      <c r="K124" t="s">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>25</v>
-      </c>
-      <c r="E125" t="s">
+        <v>72</v>
+      </c>
+      <c r="F125" t="s">
         <v>113</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
       </c>
       <c r="H125">
         <v>0.5</v>
       </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>24</v>
+      </c>
+      <c r="K125" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F126" t="s">
         <v>114</v>
       </c>
       <c r="H126">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K126" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>73</v>
-      </c>
-      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
         <v>115</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127" t="s">
-        <v>25</v>
-      </c>
-      <c r="K127" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>6</v>
-      </c>
-      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s">
-        <v>117</v>
+        <v>26</v>
+      </c>
+      <c r="E129" t="s">
+        <v>66</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>26</v>
-      </c>
-      <c r="E130" t="s">
-        <v>67</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="F130" t="s">
+        <v>117</v>
       </c>
       <c r="H130">
         <v>1</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>24</v>
+      </c>
+      <c r="K130" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F131" t="s">
         <v>118</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K131" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F132" t="s">
         <v>119</v>
       </c>
       <c r="H132">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K132" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F133" t="s">
         <v>120</v>
@@ -3385,283 +3391,283 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K133" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134">
-        <v>77</v>
-      </c>
-      <c r="F134" t="s">
-        <v>121</v>
+        <v>27</v>
+      </c>
+      <c r="E134" t="s">
+        <v>76</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-      <c r="J134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K134" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135">
-        <v>27</v>
-      </c>
-      <c r="E135" t="s">
-        <v>77</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="F135" t="s">
+        <v>121</v>
       </c>
       <c r="H135">
         <v>1</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>24</v>
+      </c>
+      <c r="K135" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F136" t="s">
         <v>122</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K136" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F137" t="s">
         <v>123</v>
       </c>
       <c r="H137">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F138" t="s">
         <v>124</v>
       </c>
       <c r="H138">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K138" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A139">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="F139" t="s">
         <v>125</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I139">
         <v>1</v>
-      </c>
-      <c r="J139" t="s">
-        <v>25</v>
-      </c>
-      <c r="K139" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>7</v>
       </c>
-      <c r="F140" t="s">
+      <c r="C140" t="s">
         <v>126</v>
-      </c>
-      <c r="H140">
-        <v>-0.5</v>
-      </c>
-      <c r="I140">
-        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A141">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142">
-        <v>12</v>
-      </c>
-      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" t="s">
         <v>128</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143">
-        <v>28</v>
-      </c>
-      <c r="E143" t="s">
+        <v>82</v>
+      </c>
+      <c r="F143" t="s">
         <v>129</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>24</v>
+      </c>
+      <c r="K143" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A144">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F144" t="s">
         <v>130</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K144" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145">
-        <v>83</v>
-      </c>
-      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
         <v>131</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-      <c r="J145" t="s">
-        <v>25</v>
-      </c>
-      <c r="K145" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146">
-        <v>8</v>
-      </c>
-      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147">
-        <v>13</v>
-      </c>
-      <c r="D147" t="s">
-        <v>133</v>
+        <v>29</v>
+      </c>
+      <c r="E147" t="s">
+        <v>38</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148">
-        <v>29</v>
-      </c>
-      <c r="E148" t="s">
-        <v>39</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F148" t="s">
+        <v>133</v>
       </c>
       <c r="H148">
         <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>24</v>
+      </c>
+      <c r="K148" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F149" t="s">
         <v>134</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K149" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F150" t="s">
         <v>135</v>
       </c>
       <c r="H150">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K150" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A151">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F151" t="s">
         <v>136</v>
@@ -3673,259 +3679,259 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K151" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A152">
-        <v>87</v>
-      </c>
-      <c r="F152" t="s">
+        <v>30</v>
+      </c>
+      <c r="E152" t="s">
         <v>137</v>
       </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
       <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-      <c r="J152" t="s">
-        <v>25</v>
-      </c>
-      <c r="K152" t="s">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A153">
-        <v>30</v>
-      </c>
-      <c r="E153" t="s">
+        <v>88</v>
+      </c>
+      <c r="F153" t="s">
         <v>138</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
       </c>
       <c r="H153">
         <v>0.5</v>
       </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>24</v>
+      </c>
+      <c r="K153" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A154">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F154" t="s">
         <v>139</v>
       </c>
       <c r="H154">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K154" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A155">
-        <v>89</v>
-      </c>
-      <c r="F155" t="s">
+        <v>31</v>
+      </c>
+      <c r="E155" t="s">
         <v>140</v>
       </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
       <c r="H155">
-        <v>0</v>
-      </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-      <c r="J155" t="s">
-        <v>25</v>
-      </c>
-      <c r="K155" t="s">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A156">
-        <v>31</v>
-      </c>
-      <c r="E156" t="s">
+        <v>90</v>
+      </c>
+      <c r="F156" t="s">
         <v>141</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
       </c>
       <c r="H156">
         <v>0.5</v>
       </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>24</v>
+      </c>
+      <c r="K156" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A157">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F157" t="s">
         <v>142</v>
       </c>
       <c r="H157">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K157" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A158">
-        <v>91</v>
-      </c>
-      <c r="F158" t="s">
+        <v>32</v>
+      </c>
+      <c r="E158" t="s">
         <v>143</v>
       </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
       <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-      <c r="J158" t="s">
-        <v>25</v>
-      </c>
-      <c r="K158" t="s">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A159">
-        <v>32</v>
-      </c>
-      <c r="E159" t="s">
+        <v>92</v>
+      </c>
+      <c r="F159" t="s">
         <v>144</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
       </c>
       <c r="H159">
         <v>0.5</v>
       </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159" t="s">
+        <v>24</v>
+      </c>
+      <c r="K159" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A160">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F160" t="s">
         <v>145</v>
       </c>
       <c r="H160">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K160" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A161">
-        <v>93</v>
-      </c>
-      <c r="F161" t="s">
-        <v>146</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-      <c r="J161" t="s">
-        <v>25</v>
-      </c>
-      <c r="K161" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D161" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A162">
-        <v>14</v>
-      </c>
-      <c r="D162" t="s">
-        <v>77</v>
+        <v>33</v>
+      </c>
+      <c r="E162" t="s">
+        <v>76</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0.4</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A163">
-        <v>33</v>
-      </c>
-      <c r="E163" t="s">
-        <v>77</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="F163" t="s">
+        <v>146</v>
       </c>
       <c r="H163">
         <v>0.4</v>
       </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>24</v>
+      </c>
+      <c r="K163" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A164">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F164" t="s">
         <v>147</v>
       </c>
       <c r="H164">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K164" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A165">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F165" t="s">
         <v>148</v>
       </c>
       <c r="H165">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K165" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A166">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F166" t="s">
         <v>149</v>
@@ -3937,142 +3943,142 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K166" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A167">
-        <v>97</v>
-      </c>
-      <c r="F167" t="s">
-        <v>150</v>
+        <v>34</v>
+      </c>
+      <c r="E167" t="s">
+        <v>109</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
-      <c r="J167" t="s">
-        <v>25</v>
-      </c>
-      <c r="K167" t="s">
-        <v>26</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A168">
-        <v>34</v>
-      </c>
-      <c r="E168" t="s">
-        <v>110</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F168" t="s">
+        <v>150</v>
       </c>
       <c r="H168">
         <v>0.1</v>
       </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" t="s">
+        <v>24</v>
+      </c>
+      <c r="K168" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A169">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F169" t="s">
         <v>151</v>
       </c>
       <c r="H169">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K169" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A170">
-        <v>99</v>
-      </c>
-      <c r="F170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" t="s">
         <v>152</v>
-      </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
-      <c r="J170" t="s">
-        <v>25</v>
-      </c>
-      <c r="K170" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A171">
-        <v>9</v>
-      </c>
-      <c r="C171" t="s">
-        <v>153</v>
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A172">
-        <v>15</v>
-      </c>
-      <c r="D172" t="s">
-        <v>133</v>
+        <v>35</v>
+      </c>
+      <c r="E172" t="s">
+        <v>38</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0.5</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A173">
-        <v>35</v>
-      </c>
-      <c r="E173" t="s">
-        <v>39</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F173" t="s">
+        <v>133</v>
       </c>
       <c r="H173">
         <v>0.5</v>
       </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173" t="s">
+        <v>24</v>
+      </c>
+      <c r="K173" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A174">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F174" t="s">
         <v>134</v>
       </c>
       <c r="H174">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K174" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A175">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F175" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -4081,18 +4087,18 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K175" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A176">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F176" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -4101,259 +4107,259 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K176" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A177">
-        <v>103</v>
-      </c>
-      <c r="F177" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177" t="s">
         <v>137</v>
       </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
       <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
-      <c r="J177" t="s">
-        <v>25</v>
-      </c>
-      <c r="K177" t="s">
-        <v>26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A178">
-        <v>36</v>
-      </c>
-      <c r="E178" t="s">
-        <v>138</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="F178" t="s">
+        <v>154</v>
       </c>
       <c r="H178">
         <v>0.3</v>
       </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>24</v>
+      </c>
+      <c r="K178" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A179">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F179" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H179">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K179" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A180">
-        <v>105</v>
-      </c>
-      <c r="F180" t="s">
+        <v>37</v>
+      </c>
+      <c r="E180" t="s">
         <v>140</v>
       </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
       <c r="H180">
-        <v>0</v>
-      </c>
-      <c r="I180">
-        <v>1</v>
-      </c>
-      <c r="J180" t="s">
-        <v>25</v>
-      </c>
-      <c r="K180" t="s">
-        <v>26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A181">
-        <v>37</v>
-      </c>
-      <c r="E181" t="s">
-        <v>141</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="F181" t="s">
+        <v>155</v>
       </c>
       <c r="H181">
         <v>0.2</v>
       </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>24</v>
+      </c>
+      <c r="K181" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A182">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F182" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H182">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K182" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A183">
-        <v>107</v>
-      </c>
-      <c r="F183" t="s">
+        <v>38</v>
+      </c>
+      <c r="E183" t="s">
         <v>143</v>
       </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
       <c r="H183">
-        <v>0</v>
-      </c>
-      <c r="I183">
-        <v>1</v>
-      </c>
-      <c r="J183" t="s">
-        <v>25</v>
-      </c>
-      <c r="K183" t="s">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A184">
-        <v>38</v>
-      </c>
-      <c r="E184" t="s">
+        <v>108</v>
+      </c>
+      <c r="F184" t="s">
         <v>144</v>
-      </c>
-      <c r="G184">
-        <v>0</v>
       </c>
       <c r="H184">
         <v>0.5</v>
       </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184" t="s">
+        <v>24</v>
+      </c>
+      <c r="K184" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A185">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F185" t="s">
         <v>145</v>
       </c>
       <c r="H185">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K185" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A186">
-        <v>109</v>
-      </c>
-      <c r="F186" t="s">
-        <v>146</v>
-      </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-      <c r="J186" t="s">
-        <v>25</v>
-      </c>
-      <c r="K186" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A187">
-        <v>16</v>
-      </c>
-      <c r="D187" t="s">
-        <v>77</v>
+        <v>39</v>
+      </c>
+      <c r="E187" t="s">
+        <v>76</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0.5</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A188">
-        <v>39</v>
-      </c>
-      <c r="E188" t="s">
-        <v>77</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="F188" t="s">
+        <v>156</v>
       </c>
       <c r="H188">
         <v>0.5</v>
       </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>24</v>
+      </c>
+      <c r="K188" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A189">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F189" t="s">
         <v>157</v>
       </c>
       <c r="H189">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I189">
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K189" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A190">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F190" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H190">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K190" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A191">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F191" t="s">
         <v>149</v>
@@ -4365,88 +4371,88 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K191" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A192">
-        <v>113</v>
-      </c>
-      <c r="F192" t="s">
-        <v>150</v>
-      </c>
-      <c r="H192">
-        <v>0</v>
-      </c>
-      <c r="I192">
-        <v>1</v>
-      </c>
-      <c r="J192" t="s">
-        <v>25</v>
-      </c>
-      <c r="K192" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="C192" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193">
-        <v>10</v>
-      </c>
-      <c r="C193" t="s">
-        <v>159</v>
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A194">
-        <v>17</v>
-      </c>
-      <c r="D194" t="s">
-        <v>133</v>
+        <v>40</v>
+      </c>
+      <c r="E194" t="s">
+        <v>38</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0.5</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A195">
-        <v>40</v>
-      </c>
-      <c r="E195" t="s">
-        <v>39</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="F195" t="s">
+        <v>133</v>
       </c>
       <c r="H195">
         <v>0.5</v>
       </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" t="s">
+        <v>24</v>
+      </c>
+      <c r="K195" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A196">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F196" t="s">
         <v>134</v>
       </c>
       <c r="H196">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K196" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A197">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F197" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -4455,18 +4461,18 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K197" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A198">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F198" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -4475,259 +4481,259 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K198" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A199">
-        <v>117</v>
-      </c>
-      <c r="F199" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" t="s">
         <v>137</v>
       </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
       <c r="H199">
-        <v>0</v>
-      </c>
-      <c r="I199">
-        <v>1</v>
-      </c>
-      <c r="J199" t="s">
-        <v>25</v>
-      </c>
-      <c r="K199" t="s">
-        <v>26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A200">
-        <v>41</v>
-      </c>
-      <c r="E200" t="s">
-        <v>138</v>
-      </c>
-      <c r="G200">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="F200" t="s">
+        <v>154</v>
       </c>
       <c r="H200">
         <v>0.3</v>
       </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" t="s">
+        <v>24</v>
+      </c>
+      <c r="K200" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A201">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F201" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H201">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K201" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A202">
-        <v>119</v>
-      </c>
-      <c r="F202" t="s">
+        <v>42</v>
+      </c>
+      <c r="E202" t="s">
         <v>140</v>
       </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
       <c r="H202">
-        <v>0</v>
-      </c>
-      <c r="I202">
-        <v>1</v>
-      </c>
-      <c r="J202" t="s">
-        <v>25</v>
-      </c>
-      <c r="K202" t="s">
-        <v>26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A203">
-        <v>42</v>
-      </c>
-      <c r="E203" t="s">
-        <v>141</v>
-      </c>
-      <c r="G203">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="F203" t="s">
+        <v>155</v>
       </c>
       <c r="H203">
         <v>0.2</v>
       </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>24</v>
+      </c>
+      <c r="K203" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A204">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F204" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H204">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K204" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A205">
-        <v>121</v>
-      </c>
-      <c r="F205" t="s">
+        <v>43</v>
+      </c>
+      <c r="E205" t="s">
         <v>143</v>
       </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
       <c r="H205">
-        <v>0</v>
-      </c>
-      <c r="I205">
-        <v>1</v>
-      </c>
-      <c r="J205" t="s">
-        <v>25</v>
-      </c>
-      <c r="K205" t="s">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A206">
-        <v>43</v>
-      </c>
-      <c r="E206" t="s">
+        <v>122</v>
+      </c>
+      <c r="F206" t="s">
         <v>144</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
       </c>
       <c r="H206">
         <v>0.5</v>
       </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
+        <v>24</v>
+      </c>
+      <c r="K206" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A207">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F207" t="s">
         <v>145</v>
       </c>
       <c r="H207">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K207" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A208">
-        <v>123</v>
-      </c>
-      <c r="F208" t="s">
-        <v>146</v>
-      </c>
-      <c r="H208">
-        <v>0</v>
-      </c>
-      <c r="I208">
-        <v>1</v>
-      </c>
-      <c r="J208" t="s">
-        <v>25</v>
-      </c>
-      <c r="K208" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="D208" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A209">
-        <v>18</v>
-      </c>
-      <c r="D209" t="s">
-        <v>77</v>
+        <v>44</v>
+      </c>
+      <c r="E209" t="s">
+        <v>76</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0.5</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A210">
-        <v>44</v>
-      </c>
-      <c r="E210" t="s">
-        <v>77</v>
-      </c>
-      <c r="G210">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="F210" t="s">
+        <v>156</v>
       </c>
       <c r="H210">
         <v>0.5</v>
       </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210" t="s">
+        <v>24</v>
+      </c>
+      <c r="K210" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A211">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F211" t="s">
         <v>157</v>
       </c>
       <c r="H211">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K211" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A212">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F212" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H212">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K212" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A213">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F213" t="s">
         <v>149</v>
@@ -4739,88 +4745,88 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K213" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A214">
-        <v>127</v>
-      </c>
-      <c r="F214" t="s">
-        <v>150</v>
-      </c>
-      <c r="H214">
-        <v>0</v>
-      </c>
-      <c r="I214">
-        <v>1</v>
-      </c>
-      <c r="J214" t="s">
-        <v>25</v>
-      </c>
-      <c r="K214" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="C214" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A215">
-        <v>11</v>
-      </c>
-      <c r="C215" t="s">
-        <v>160</v>
+        <v>19</v>
+      </c>
+      <c r="D215" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A216">
-        <v>19</v>
-      </c>
-      <c r="D216" t="s">
-        <v>133</v>
+        <v>45</v>
+      </c>
+      <c r="E216" t="s">
+        <v>38</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0.5</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A217">
-        <v>45</v>
-      </c>
-      <c r="E217" t="s">
-        <v>39</v>
-      </c>
-      <c r="G217">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="F217" t="s">
+        <v>133</v>
       </c>
       <c r="H217">
         <v>0.5</v>
       </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217" t="s">
+        <v>24</v>
+      </c>
+      <c r="K217" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A218">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F218" t="s">
         <v>134</v>
       </c>
       <c r="H218">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I218">
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K218" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A219">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F219" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -4829,18 +4835,18 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K219" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A220">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F220" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -4849,259 +4855,259 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K220" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A221">
-        <v>131</v>
-      </c>
-      <c r="F221" t="s">
+        <v>46</v>
+      </c>
+      <c r="E221" t="s">
         <v>137</v>
       </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
       <c r="H221">
-        <v>0</v>
-      </c>
-      <c r="I221">
-        <v>1</v>
-      </c>
-      <c r="J221" t="s">
-        <v>25</v>
-      </c>
-      <c r="K221" t="s">
-        <v>26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A222">
-        <v>46</v>
-      </c>
-      <c r="E222" t="s">
-        <v>138</v>
-      </c>
-      <c r="G222">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="F222" t="s">
+        <v>154</v>
       </c>
       <c r="H222">
         <v>0.3</v>
       </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222" t="s">
+        <v>24</v>
+      </c>
+      <c r="K222" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A223">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F223" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H223">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K223" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A224">
-        <v>133</v>
-      </c>
-      <c r="F224" t="s">
+        <v>47</v>
+      </c>
+      <c r="E224" t="s">
         <v>140</v>
       </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
       <c r="H224">
-        <v>0</v>
-      </c>
-      <c r="I224">
-        <v>1</v>
-      </c>
-      <c r="J224" t="s">
-        <v>25</v>
-      </c>
-      <c r="K224" t="s">
-        <v>26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A225">
-        <v>47</v>
-      </c>
-      <c r="E225" t="s">
-        <v>141</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="F225" t="s">
+        <v>155</v>
       </c>
       <c r="H225">
         <v>0.2</v>
       </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>24</v>
+      </c>
+      <c r="K225" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A226">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F226" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H226">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I226">
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K226" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A227">
-        <v>135</v>
-      </c>
-      <c r="F227" t="s">
+        <v>48</v>
+      </c>
+      <c r="E227" t="s">
         <v>143</v>
       </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
       <c r="H227">
-        <v>0</v>
-      </c>
-      <c r="I227">
-        <v>1</v>
-      </c>
-      <c r="J227" t="s">
-        <v>25</v>
-      </c>
-      <c r="K227" t="s">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A228">
-        <v>48</v>
-      </c>
-      <c r="E228" t="s">
+        <v>136</v>
+      </c>
+      <c r="F228" t="s">
         <v>144</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
       </c>
       <c r="H228">
         <v>0.5</v>
       </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228" t="s">
+        <v>24</v>
+      </c>
+      <c r="K228" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A229">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F229" t="s">
         <v>145</v>
       </c>
       <c r="H229">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A230">
-        <v>137</v>
-      </c>
-      <c r="F230" t="s">
-        <v>146</v>
-      </c>
-      <c r="H230">
-        <v>0</v>
-      </c>
-      <c r="I230">
-        <v>1</v>
-      </c>
-      <c r="J230" t="s">
-        <v>25</v>
-      </c>
-      <c r="K230" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="D230" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A231">
-        <v>20</v>
-      </c>
-      <c r="D231" t="s">
-        <v>77</v>
+        <v>49</v>
+      </c>
+      <c r="E231" t="s">
+        <v>76</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0.5</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A232">
-        <v>49</v>
-      </c>
-      <c r="E232" t="s">
-        <v>77</v>
-      </c>
-      <c r="G232">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="F232" t="s">
+        <v>156</v>
       </c>
       <c r="H232">
         <v>0.5</v>
       </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232" t="s">
+        <v>24</v>
+      </c>
+      <c r="K232" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A233">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F233" t="s">
         <v>157</v>
       </c>
       <c r="H233">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I233">
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K233" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A234">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F234" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H234">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I234">
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K234" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A235">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F235" t="s">
         <v>149</v>
@@ -5113,93 +5119,93 @@
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K235" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A236">
-        <v>141</v>
-      </c>
-      <c r="F236" t="s">
-        <v>150</v>
-      </c>
-      <c r="H236">
-        <v>0</v>
-      </c>
-      <c r="I236">
-        <v>1</v>
-      </c>
-      <c r="J236" t="s">
-        <v>25</v>
-      </c>
-      <c r="K236" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="B236" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A237">
-        <v>4</v>
-      </c>
-      <c r="B237" t="s">
-        <v>161</v>
+        <v>12</v>
+      </c>
+      <c r="C237" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A238">
-        <v>12</v>
-      </c>
-      <c r="C238" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A239">
-        <v>21</v>
-      </c>
-      <c r="D239" t="s">
+        <v>50</v>
+      </c>
+      <c r="E239" t="s">
         <v>22</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A240">
-        <v>50</v>
-      </c>
-      <c r="E240" t="s">
-        <v>23</v>
-      </c>
-      <c r="G240">
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="F240" t="s">
+        <v>161</v>
       </c>
       <c r="H240">
         <v>1</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240" t="s">
+        <v>24</v>
+      </c>
+      <c r="K240" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A241">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F241" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241">
         <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K241" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A242">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F242" t="s">
         <v>28</v>
@@ -5211,69 +5217,69 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K242" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A243">
-        <v>144</v>
-      </c>
-      <c r="F243" t="s">
+        <v>51</v>
+      </c>
+      <c r="E243" t="s">
         <v>29</v>
       </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
       <c r="H243">
-        <v>0</v>
-      </c>
-      <c r="I243">
-        <v>1</v>
-      </c>
-      <c r="J243" t="s">
-        <v>25</v>
-      </c>
-      <c r="K243" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A244">
-        <v>51</v>
-      </c>
-      <c r="E244" t="s">
-        <v>30</v>
-      </c>
-      <c r="G244">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="F244" t="s">
+        <v>162</v>
       </c>
       <c r="H244">
         <v>1</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244" t="s">
+        <v>24</v>
+      </c>
+      <c r="K244" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A245">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F245" t="s">
         <v>163</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K245" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A246">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F246" t="s">
         <v>164</v>
@@ -5285,231 +5291,225 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K246" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A247">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F247" t="s">
         <v>165</v>
       </c>
       <c r="H247">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I247">
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K247" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A248">
-        <v>148</v>
-      </c>
-      <c r="F248" t="s">
-        <v>166</v>
+        <v>52</v>
+      </c>
+      <c r="E248" t="s">
+        <v>82</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
       </c>
       <c r="H248">
-        <v>0</v>
-      </c>
-      <c r="I248">
-        <v>1</v>
-      </c>
-      <c r="J248" t="s">
-        <v>25</v>
-      </c>
-      <c r="K248" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A249">
-        <v>52</v>
-      </c>
-      <c r="E249" t="s">
-        <v>83</v>
-      </c>
-      <c r="G249">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="F249" t="s">
+        <v>166</v>
       </c>
       <c r="H249">
         <v>2</v>
       </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249" t="s">
+        <v>24</v>
+      </c>
+      <c r="K249" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A250">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F250" t="s">
         <v>167</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K250" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A251">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F251" t="s">
         <v>168</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K251" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A252">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F252" t="s">
         <v>169</v>
       </c>
       <c r="H252">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I252">
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K252" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A253">
-        <v>152</v>
-      </c>
-      <c r="F253" t="s">
-        <v>170</v>
-      </c>
-      <c r="H253">
-        <v>0</v>
-      </c>
-      <c r="I253">
-        <v>1</v>
-      </c>
-      <c r="J253" t="s">
-        <v>25</v>
-      </c>
-      <c r="K253" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D253" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A254">
-        <v>22</v>
-      </c>
-      <c r="D254" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="E254" t="s">
+        <v>170</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A255">
-        <v>53</v>
-      </c>
-      <c r="E255" t="s">
+        <v>153</v>
+      </c>
+      <c r="F255" t="s">
         <v>171</v>
-      </c>
-      <c r="G255">
-        <v>0</v>
       </c>
       <c r="H255">
         <v>4</v>
       </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255" t="s">
+        <v>24</v>
+      </c>
+      <c r="K255" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A256">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F256" t="s">
         <v>172</v>
       </c>
       <c r="H256">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I256">
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K256" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A257">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F257" t="s">
         <v>173</v>
       </c>
       <c r="H257">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257">
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K257" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A258">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="F258" t="s">
         <v>174</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I258">
         <v>1</v>
-      </c>
-      <c r="J258" t="s">
-        <v>25</v>
-      </c>
-      <c r="K258" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A259">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F259" t="s">
         <v>175</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A260">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F260" t="s">
         <v>176</v>
@@ -5537,95 +5537,95 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A261">
-        <v>10</v>
-      </c>
-      <c r="F261" t="s">
+        <v>54</v>
+      </c>
+      <c r="E261" t="s">
         <v>177</v>
       </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
       <c r="H261">
-        <v>-1</v>
-      </c>
-      <c r="I261">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A262">
-        <v>54</v>
-      </c>
-      <c r="E262" t="s">
-        <v>178</v>
-      </c>
-      <c r="G262">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="F262" t="s">
+        <v>171</v>
       </c>
       <c r="H262">
         <v>5</v>
       </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262" t="s">
+        <v>24</v>
+      </c>
+      <c r="K262" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A263">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F263" t="s">
         <v>172</v>
       </c>
       <c r="H263">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K263" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A264">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F264" t="s">
         <v>173</v>
       </c>
       <c r="H264">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I264">
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K264" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A265">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F265" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I265">
         <v>1</v>
-      </c>
-      <c r="J265" t="s">
-        <v>25</v>
-      </c>
-      <c r="K265" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A266">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F266" t="s">
         <v>179</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A267">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F267" t="s">
         <v>180</v>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A268">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F268" t="s">
         <v>181</v>
@@ -5667,449 +5667,455 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A269">
-        <v>14</v>
-      </c>
-      <c r="F269" t="s">
+        <v>55</v>
+      </c>
+      <c r="E269" t="s">
         <v>182</v>
       </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
       <c r="H269">
-        <v>-1</v>
-      </c>
-      <c r="I269">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A270">
-        <v>55</v>
-      </c>
-      <c r="E270" t="s">
-        <v>183</v>
-      </c>
-      <c r="G270">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="F270" t="s">
+        <v>171</v>
       </c>
       <c r="H270">
         <v>0.5</v>
       </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270" t="s">
+        <v>24</v>
+      </c>
+      <c r="K270" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A271">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F271" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H271">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I271">
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K271" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A272">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F272" t="s">
         <v>184</v>
       </c>
       <c r="H272">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I272">
         <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K272" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A273">
-        <v>161</v>
-      </c>
-      <c r="F273" t="s">
+        <v>56</v>
+      </c>
+      <c r="E273" t="s">
         <v>185</v>
       </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
       <c r="H273">
-        <v>0</v>
-      </c>
-      <c r="I273">
-        <v>1</v>
-      </c>
-      <c r="J273" t="s">
-        <v>25</v>
-      </c>
-      <c r="K273" t="s">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A274">
-        <v>56</v>
-      </c>
-      <c r="E274" t="s">
+        <v>162</v>
+      </c>
+      <c r="F274" t="s">
         <v>186</v>
-      </c>
-      <c r="G274">
-        <v>0</v>
       </c>
       <c r="H274">
         <v>0.5</v>
       </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274" t="s">
+        <v>24</v>
+      </c>
+      <c r="K274" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A275">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F275" t="s">
         <v>187</v>
       </c>
       <c r="H275">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I275">
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K275" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A276">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F276" t="s">
         <v>188</v>
       </c>
       <c r="H276">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K276" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A277">
-        <v>164</v>
-      </c>
-      <c r="F277" t="s">
-        <v>189</v>
-      </c>
-      <c r="H277">
-        <v>0</v>
-      </c>
-      <c r="I277">
-        <v>1</v>
-      </c>
-      <c r="J277" t="s">
-        <v>25</v>
-      </c>
-      <c r="K277" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="D277" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A278">
-        <v>23</v>
-      </c>
-      <c r="D278" t="s">
-        <v>98</v>
+        <v>57</v>
+      </c>
+      <c r="E278" t="s">
+        <v>97</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A279">
-        <v>57</v>
-      </c>
-      <c r="E279" t="s">
-        <v>98</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="F279" t="s">
+        <v>189</v>
       </c>
       <c r="H279">
         <v>1</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279" t="s">
+        <v>24</v>
+      </c>
+      <c r="K279" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A280">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F280" t="s">
         <v>190</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I280">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K280" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A281">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F281" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="H281">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I281">
         <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K281" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A282">
-        <v>167</v>
-      </c>
-      <c r="F282" t="s">
-        <v>65</v>
-      </c>
-      <c r="H282">
-        <v>0</v>
-      </c>
-      <c r="I282">
-        <v>1</v>
-      </c>
-      <c r="J282" t="s">
-        <v>25</v>
-      </c>
-      <c r="K282" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="C282" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A283">
-        <v>13</v>
-      </c>
-      <c r="C283" t="s">
-        <v>192</v>
+        <v>24</v>
+      </c>
+      <c r="D283" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A284">
-        <v>24</v>
-      </c>
-      <c r="D284" t="s">
+        <v>58</v>
+      </c>
+      <c r="E284" t="s">
         <v>67</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A285">
-        <v>58</v>
-      </c>
-      <c r="E285" t="s">
+        <v>168</v>
+      </c>
+      <c r="F285" t="s">
         <v>68</v>
-      </c>
-      <c r="G285">
-        <v>0</v>
       </c>
       <c r="H285">
         <v>3</v>
       </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285" t="s">
+        <v>24</v>
+      </c>
+      <c r="K285" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A286">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F286" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I286">
         <v>1</v>
       </c>
       <c r="J286" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K286" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A287">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F287" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287">
         <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K287" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A288">
-        <v>170</v>
-      </c>
-      <c r="F288" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="E288" t="s">
+        <v>193</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
       </c>
       <c r="H288">
-        <v>0</v>
-      </c>
-      <c r="I288">
-        <v>1</v>
-      </c>
-      <c r="J288" t="s">
-        <v>25</v>
-      </c>
-      <c r="K288" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A289">
-        <v>59</v>
-      </c>
-      <c r="E289" t="s">
+        <v>171</v>
+      </c>
+      <c r="F289" t="s">
         <v>194</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
       </c>
       <c r="H289">
         <v>3</v>
       </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289" t="s">
+        <v>24</v>
+      </c>
+      <c r="K289" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A290">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F290" t="s">
         <v>195</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290">
         <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K290" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A291">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F291" t="s">
         <v>196</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291">
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K291" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A292">
-        <v>173</v>
-      </c>
-      <c r="F292" t="s">
-        <v>197</v>
+        <v>60</v>
+      </c>
+      <c r="E292" t="s">
+        <v>72</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
       </c>
       <c r="H292">
-        <v>0</v>
-      </c>
-      <c r="I292">
-        <v>1</v>
-      </c>
-      <c r="J292" t="s">
-        <v>25</v>
-      </c>
-      <c r="K292" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A293">
-        <v>60</v>
-      </c>
-      <c r="E293" t="s">
+        <v>174</v>
+      </c>
+      <c r="F293" t="s">
         <v>73</v>
       </c>
-      <c r="G293">
-        <v>0</v>
-      </c>
       <c r="H293">
         <v>1</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293" t="s">
+        <v>24</v>
+      </c>
+      <c r="K293" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A294">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F294" t="s">
         <v>74</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294">
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K294" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A295">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F295" t="s">
         <v>75</v>
@@ -6121,123 +6127,117 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K295" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A296">
-        <v>176</v>
-      </c>
-      <c r="F296" t="s">
+        <v>61</v>
+      </c>
+      <c r="E296" t="s">
         <v>76</v>
       </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
       <c r="H296">
-        <v>0</v>
-      </c>
-      <c r="I296">
-        <v>1</v>
-      </c>
-      <c r="J296" t="s">
-        <v>25</v>
-      </c>
-      <c r="K296" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A297">
-        <v>61</v>
-      </c>
-      <c r="E297" t="s">
+        <v>177</v>
+      </c>
+      <c r="F297" t="s">
         <v>77</v>
       </c>
-      <c r="G297">
-        <v>0</v>
-      </c>
       <c r="H297">
         <v>1</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297" t="s">
+        <v>24</v>
+      </c>
+      <c r="K297" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A298">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F298" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I298">
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K298" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A299">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F299" t="s">
         <v>198</v>
       </c>
       <c r="H299">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I299">
         <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K299" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A300">
-        <v>179</v>
-      </c>
-      <c r="F300" t="s">
-        <v>199</v>
+        <v>62</v>
+      </c>
+      <c r="E300" t="s">
+        <v>15</v>
+      </c>
+      <c r="G300">
+        <v>-2</v>
       </c>
       <c r="H300">
         <v>0</v>
-      </c>
-      <c r="I300">
-        <v>1</v>
-      </c>
-      <c r="J300" t="s">
-        <v>25</v>
-      </c>
-      <c r="K300" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A301">
-        <v>62</v>
-      </c>
-      <c r="E301" t="s">
-        <v>16</v>
-      </c>
-      <c r="G301">
+        <v>15</v>
+      </c>
+      <c r="F301" t="s">
+        <v>199</v>
+      </c>
+      <c r="H301">
         <v>-2</v>
       </c>
-      <c r="H301">
-        <v>0</v>
+      <c r="I301">
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A302">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F302" t="s">
         <v>200</v>
@@ -6251,399 +6251,405 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A303">
-        <v>16</v>
-      </c>
-      <c r="F303" t="s">
+        <v>14</v>
+      </c>
+      <c r="C303" t="s">
         <v>201</v>
-      </c>
-      <c r="H303">
-        <v>-2</v>
-      </c>
-      <c r="I303">
-        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A304">
-        <v>14</v>
-      </c>
-      <c r="C304" t="s">
+        <v>25</v>
+      </c>
+      <c r="D304" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A305">
-        <v>25</v>
-      </c>
-      <c r="D305" t="s">
+        <v>63</v>
+      </c>
+      <c r="E305" t="s">
         <v>203</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A306">
-        <v>63</v>
-      </c>
-      <c r="E306" t="s">
+        <v>180</v>
+      </c>
+      <c r="F306" t="s">
         <v>204</v>
-      </c>
-      <c r="G306">
-        <v>0</v>
       </c>
       <c r="H306">
         <v>2</v>
       </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306" t="s">
+        <v>24</v>
+      </c>
+      <c r="K306" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A307">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F307" t="s">
         <v>205</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307">
         <v>1</v>
       </c>
       <c r="J307" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K307" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A308">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F308" t="s">
         <v>206</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308">
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K308" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A309">
-        <v>182</v>
-      </c>
-      <c r="F309" t="s">
-        <v>207</v>
-      </c>
-      <c r="H309">
-        <v>0</v>
-      </c>
-      <c r="I309">
-        <v>1</v>
-      </c>
-      <c r="J309" t="s">
-        <v>25</v>
-      </c>
-      <c r="K309" t="s">
         <v>26</v>
+      </c>
+      <c r="D309" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A310">
-        <v>26</v>
-      </c>
-      <c r="D310" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="E310" t="s">
+        <v>207</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A311">
-        <v>64</v>
-      </c>
-      <c r="E311" t="s">
+        <v>183</v>
+      </c>
+      <c r="F311" t="s">
         <v>208</v>
       </c>
-      <c r="G311">
-        <v>0</v>
-      </c>
       <c r="H311">
         <v>1</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+      <c r="J311" t="s">
+        <v>24</v>
+      </c>
+      <c r="K311" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A312">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F312" t="s">
         <v>209</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I312">
         <v>1</v>
       </c>
       <c r="J312" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K312" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A313">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F313" t="s">
         <v>210</v>
       </c>
       <c r="H313">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I313">
         <v>1</v>
       </c>
       <c r="J313" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K313" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A314">
-        <v>185</v>
-      </c>
-      <c r="F314" t="s">
-        <v>211</v>
+        <v>65</v>
+      </c>
+      <c r="E314" t="s">
+        <v>76</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
       </c>
       <c r="H314">
-        <v>0</v>
-      </c>
-      <c r="I314">
-        <v>1</v>
-      </c>
-      <c r="J314" t="s">
-        <v>25</v>
-      </c>
-      <c r="K314" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A315">
-        <v>65</v>
-      </c>
-      <c r="E315" t="s">
-        <v>77</v>
-      </c>
-      <c r="G315">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="F315" t="s">
+        <v>211</v>
       </c>
       <c r="H315">
         <v>1</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315" t="s">
+        <v>24</v>
+      </c>
+      <c r="K315" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A316">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F316" t="s">
         <v>212</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I316">
         <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K316" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A317">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F317" t="s">
         <v>213</v>
       </c>
       <c r="H317">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I317">
         <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K317" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A318">
-        <v>188</v>
-      </c>
-      <c r="F318" t="s">
-        <v>214</v>
+        <v>66</v>
+      </c>
+      <c r="E318" t="s">
+        <v>109</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
       </c>
       <c r="H318">
-        <v>0</v>
-      </c>
-      <c r="I318">
-        <v>1</v>
-      </c>
-      <c r="J318" t="s">
-        <v>25</v>
-      </c>
-      <c r="K318" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A319">
-        <v>66</v>
-      </c>
-      <c r="E319" t="s">
-        <v>110</v>
-      </c>
-      <c r="G319">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="F319" t="s">
+        <v>214</v>
       </c>
       <c r="H319">
         <v>3</v>
       </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319" t="s">
+        <v>24</v>
+      </c>
+      <c r="K319" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A320">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F320" t="s">
         <v>215</v>
       </c>
       <c r="H320">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320">
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K320" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A321">
-        <v>190</v>
-      </c>
-      <c r="F321" t="s">
-        <v>216</v>
-      </c>
-      <c r="H321">
-        <v>0</v>
-      </c>
-      <c r="I321">
-        <v>1</v>
-      </c>
-      <c r="J321" t="s">
-        <v>25</v>
-      </c>
-      <c r="K321" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="B321" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A322">
-        <v>5</v>
-      </c>
-      <c r="B322" t="s">
-        <v>265</v>
+        <v>15</v>
+      </c>
+      <c r="C322" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A323">
-        <v>15</v>
-      </c>
-      <c r="C323" t="s">
+        <v>27</v>
+      </c>
+      <c r="D323" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A324">
-        <v>27</v>
-      </c>
-      <c r="D324" t="s">
+        <v>67</v>
+      </c>
+      <c r="E324" t="s">
         <v>22</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>0.3</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A325">
-        <v>67</v>
-      </c>
-      <c r="E325" t="s">
+        <v>191</v>
+      </c>
+      <c r="F325" t="s">
         <v>23</v>
-      </c>
-      <c r="G325">
-        <v>0</v>
       </c>
       <c r="H325">
         <v>0.3</v>
       </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325" t="s">
+        <v>24</v>
+      </c>
+      <c r="K325" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A326">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F326" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H326">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I326">
         <v>1</v>
       </c>
       <c r="J326" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K326" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A327">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F327" t="s">
         <v>27</v>
       </c>
       <c r="H327">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I327">
         <v>1</v>
       </c>
       <c r="J327" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K327" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A328">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F328" t="s">
         <v>28</v>
@@ -6655,299 +6661,299 @@
         <v>1</v>
       </c>
       <c r="J328" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K328" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A329">
-        <v>194</v>
-      </c>
-      <c r="F329" t="s">
+        <v>68</v>
+      </c>
+      <c r="E329" t="s">
         <v>29</v>
       </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
       <c r="H329">
-        <v>0</v>
-      </c>
-      <c r="I329">
-        <v>1</v>
-      </c>
-      <c r="J329" t="s">
-        <v>25</v>
-      </c>
-      <c r="K329" t="s">
-        <v>26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A330">
-        <v>68</v>
-      </c>
-      <c r="E330" t="s">
+        <v>195</v>
+      </c>
+      <c r="F330" t="s">
         <v>30</v>
-      </c>
-      <c r="G330">
-        <v>0</v>
       </c>
       <c r="H330">
         <v>0.3</v>
       </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+      <c r="J330" t="s">
+        <v>24</v>
+      </c>
+      <c r="K330" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A331">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F331" t="s">
         <v>31</v>
       </c>
       <c r="H331">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I331">
         <v>1</v>
       </c>
       <c r="J331" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K331" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A332">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F332" t="s">
         <v>32</v>
       </c>
       <c r="H332">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I332">
         <v>1</v>
       </c>
       <c r="J332" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K332" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A333">
-        <v>197</v>
-      </c>
-      <c r="F333" t="s">
+        <v>69</v>
+      </c>
+      <c r="E333" t="s">
         <v>33</v>
       </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
       <c r="H333">
-        <v>0</v>
-      </c>
-      <c r="I333">
-        <v>1</v>
-      </c>
-      <c r="J333" t="s">
-        <v>25</v>
-      </c>
-      <c r="K333" t="s">
-        <v>26</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A334">
-        <v>69</v>
-      </c>
-      <c r="E334" t="s">
+        <v>198</v>
+      </c>
+      <c r="F334" t="s">
         <v>34</v>
-      </c>
-      <c r="G334">
-        <v>0</v>
       </c>
       <c r="H334">
         <v>0.4</v>
       </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334" t="s">
+        <v>24</v>
+      </c>
+      <c r="K334" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A335">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F335" t="s">
         <v>35</v>
       </c>
       <c r="H335">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I335">
         <v>1</v>
       </c>
       <c r="J335" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K335" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A336">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F336" t="s">
         <v>36</v>
       </c>
       <c r="H336">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I336">
         <v>1</v>
       </c>
       <c r="J336" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K336" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A337">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F337" t="s">
         <v>37</v>
       </c>
       <c r="H337">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I337">
         <v>1</v>
       </c>
       <c r="J337" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K337" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A338">
-        <v>201</v>
-      </c>
-      <c r="F338" t="s">
+        <v>28</v>
+      </c>
+      <c r="D338" t="s">
         <v>38</v>
-      </c>
-      <c r="H338">
-        <v>0</v>
-      </c>
-      <c r="I338">
-        <v>1</v>
-      </c>
-      <c r="J338" t="s">
-        <v>25</v>
-      </c>
-      <c r="K338" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A339">
-        <v>28</v>
-      </c>
-      <c r="D339" t="s">
-        <v>39</v>
+        <v>70</v>
+      </c>
+      <c r="E339" t="s">
+        <v>216</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
+        <v>0.5</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A340">
-        <v>70</v>
-      </c>
-      <c r="E340" t="s">
-        <v>217</v>
-      </c>
-      <c r="G340">
-        <v>0</v>
+        <v>202</v>
+      </c>
+      <c r="F340" t="s">
+        <v>40</v>
       </c>
       <c r="H340">
         <v>0.5</v>
       </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+      <c r="J340" t="s">
+        <v>24</v>
+      </c>
+      <c r="K340" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A341">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F341" t="s">
         <v>41</v>
       </c>
       <c r="H341">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I341">
         <v>1</v>
       </c>
       <c r="J341" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K341" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A342">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F342" t="s">
         <v>42</v>
       </c>
       <c r="H342">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I342">
         <v>1</v>
       </c>
       <c r="J342" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K342" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A343">
-        <v>204</v>
-      </c>
-      <c r="F343" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="E343" t="s">
+        <v>217</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
       </c>
       <c r="H343">
-        <v>0</v>
-      </c>
-      <c r="I343">
-        <v>1</v>
-      </c>
-      <c r="J343" t="s">
-        <v>25</v>
-      </c>
-      <c r="K343" t="s">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A344">
-        <v>71</v>
-      </c>
-      <c r="E344" t="s">
+        <v>205</v>
+      </c>
+      <c r="F344" t="s">
         <v>218</v>
-      </c>
-      <c r="G344">
-        <v>0</v>
       </c>
       <c r="H344">
         <v>0.5</v>
       </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344" t="s">
+        <v>24</v>
+      </c>
+      <c r="K344" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A345">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F345" t="s">
         <v>219</v>
@@ -6959,89 +6965,89 @@
         <v>1</v>
       </c>
       <c r="J345" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K345" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A346">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F346" t="s">
         <v>220</v>
       </c>
       <c r="H346">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I346">
         <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K346" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A347">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F347" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="H347">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I347">
         <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K347" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A348">
-        <v>208</v>
-      </c>
-      <c r="F348" t="s">
-        <v>43</v>
+        <v>72</v>
+      </c>
+      <c r="E348" t="s">
+        <v>221</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
       </c>
       <c r="H348">
-        <v>0</v>
-      </c>
-      <c r="I348">
-        <v>1</v>
-      </c>
-      <c r="J348" t="s">
-        <v>25</v>
-      </c>
-      <c r="K348" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A349">
-        <v>72</v>
-      </c>
-      <c r="E349" t="s">
+        <v>209</v>
+      </c>
+      <c r="F349" t="s">
         <v>222</v>
       </c>
-      <c r="G349">
-        <v>0</v>
-      </c>
       <c r="H349">
         <v>1</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349" t="s">
+        <v>24</v>
+      </c>
+      <c r="K349" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A350">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F350" t="s">
         <v>223</v>
@@ -7053,38 +7059,38 @@
         <v>1</v>
       </c>
       <c r="J350" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K350" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A351">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F351" t="s">
         <v>224</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I351">
         <v>1</v>
       </c>
       <c r="J351" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K351" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A352">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F352" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="H352">
         <v>0.5</v>
@@ -7093,92 +7099,92 @@
         <v>1</v>
       </c>
       <c r="J352" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K352" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A353">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F353" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H353">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I353">
         <v>1</v>
       </c>
       <c r="J353" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K353" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A354">
-        <v>213</v>
-      </c>
-      <c r="F354" t="s">
-        <v>43</v>
+        <v>73</v>
+      </c>
+      <c r="E354" t="s">
+        <v>225</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
       </c>
       <c r="H354">
-        <v>0</v>
-      </c>
-      <c r="I354">
-        <v>1</v>
-      </c>
-      <c r="J354" t="s">
-        <v>25</v>
-      </c>
-      <c r="K354" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A355">
-        <v>73</v>
-      </c>
-      <c r="E355" t="s">
+        <v>214</v>
+      </c>
+      <c r="F355" t="s">
         <v>226</v>
       </c>
-      <c r="G355">
-        <v>0</v>
-      </c>
       <c r="H355">
         <v>1</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355" t="s">
+        <v>24</v>
+      </c>
+      <c r="K355" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A356">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F356" t="s">
         <v>227</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I356">
         <v>1</v>
       </c>
       <c r="J356" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K356" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A357">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F357" t="s">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c r="H357">
         <v>0.5</v>
@@ -7187,309 +7193,309 @@
         <v>1</v>
       </c>
       <c r="J357" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K357" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A358">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F358" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H358">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I358">
         <v>1</v>
       </c>
       <c r="J358" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K358" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A359">
-        <v>217</v>
-      </c>
-      <c r="F359" t="s">
-        <v>43</v>
+        <v>74</v>
+      </c>
+      <c r="E359" t="s">
+        <v>57</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
       </c>
       <c r="H359">
-        <v>0</v>
-      </c>
-      <c r="I359">
-        <v>1</v>
-      </c>
-      <c r="J359" t="s">
-        <v>25</v>
-      </c>
-      <c r="K359" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A360">
-        <v>74</v>
-      </c>
-      <c r="E360" t="s">
+        <v>218</v>
+      </c>
+      <c r="F360" t="s">
         <v>58</v>
       </c>
-      <c r="G360">
-        <v>0</v>
-      </c>
       <c r="H360">
         <v>1</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360" t="s">
+        <v>24</v>
+      </c>
+      <c r="K360" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A361">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F361" t="s">
         <v>59</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I361">
         <v>1</v>
       </c>
       <c r="J361" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K361" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A362">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F362" t="s">
         <v>60</v>
       </c>
       <c r="H362">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I362">
         <v>1</v>
       </c>
       <c r="J362" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K362" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A363">
-        <v>220</v>
-      </c>
-      <c r="F363" t="s">
+        <v>29</v>
+      </c>
+      <c r="D363" t="s">
         <v>61</v>
-      </c>
-      <c r="H363">
-        <v>0</v>
-      </c>
-      <c r="I363">
-        <v>1</v>
-      </c>
-      <c r="J363" t="s">
-        <v>25</v>
-      </c>
-      <c r="K363" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A364">
-        <v>29</v>
-      </c>
-      <c r="D364" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="E364" t="s">
+        <v>61</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A365">
-        <v>75</v>
-      </c>
-      <c r="E365" t="s">
+        <v>221</v>
+      </c>
+      <c r="F365" t="s">
         <v>62</v>
       </c>
-      <c r="G365">
-        <v>0</v>
-      </c>
       <c r="H365">
         <v>1</v>
+      </c>
+      <c r="I365">
+        <v>1</v>
+      </c>
+      <c r="J365" t="s">
+        <v>24</v>
+      </c>
+      <c r="K365" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A366">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F366" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I366">
         <v>1</v>
       </c>
       <c r="J366" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K366" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A367">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F367" t="s">
-        <v>229</v>
+        <v>64</v>
       </c>
       <c r="H367">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I367">
         <v>1</v>
       </c>
       <c r="J367" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K367" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A368">
-        <v>223</v>
-      </c>
-      <c r="F368" t="s">
+        <v>16</v>
+      </c>
+      <c r="C368" t="s">
         <v>65</v>
-      </c>
-      <c r="H368">
-        <v>0</v>
-      </c>
-      <c r="I368">
-        <v>1</v>
-      </c>
-      <c r="J368" t="s">
-        <v>25</v>
-      </c>
-      <c r="K368" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A369">
-        <v>16</v>
-      </c>
-      <c r="C369" t="s">
+        <v>30</v>
+      </c>
+      <c r="D369" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A370">
-        <v>30</v>
-      </c>
-      <c r="D370" t="s">
+        <v>76</v>
+      </c>
+      <c r="E370" t="s">
         <v>67</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>1.5</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A371">
-        <v>76</v>
-      </c>
-      <c r="E371" t="s">
+        <v>224</v>
+      </c>
+      <c r="F371" t="s">
         <v>68</v>
-      </c>
-      <c r="G371">
-        <v>0</v>
       </c>
       <c r="H371">
         <v>1.5</v>
       </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371" t="s">
+        <v>24</v>
+      </c>
+      <c r="K371" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A372">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F372" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H372">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I372">
         <v>1</v>
       </c>
       <c r="J372" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K372" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A373">
-        <v>225</v>
+        <v>17</v>
       </c>
       <c r="F373" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I373">
         <v>1</v>
-      </c>
-      <c r="J373" t="s">
-        <v>25</v>
-      </c>
-      <c r="K373" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A374">
-        <v>17</v>
-      </c>
-      <c r="F374" t="s">
-        <v>201</v>
+        <v>77</v>
+      </c>
+      <c r="E374" t="s">
+        <v>72</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
       </c>
       <c r="H374">
-        <v>-1</v>
-      </c>
-      <c r="I374">
         <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A375">
-        <v>77</v>
-      </c>
-      <c r="E375" t="s">
+        <v>226</v>
+      </c>
+      <c r="F375" t="s">
         <v>73</v>
       </c>
-      <c r="G375">
-        <v>0</v>
-      </c>
       <c r="H375">
         <v>1</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+      <c r="J375" t="s">
+        <v>24</v>
+      </c>
+      <c r="K375" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A376">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F376" t="s">
         <v>74</v>
@@ -7501,723 +7507,723 @@
         <v>1</v>
       </c>
       <c r="J376" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K376" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A377">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F377" t="s">
         <v>75</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377">
         <v>1</v>
       </c>
       <c r="J377" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K377" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A378">
-        <v>228</v>
-      </c>
-      <c r="F378" t="s">
+        <v>78</v>
+      </c>
+      <c r="E378" t="s">
         <v>76</v>
       </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
       <c r="H378">
-        <v>0</v>
-      </c>
-      <c r="I378">
-        <v>1</v>
-      </c>
-      <c r="J378" t="s">
-        <v>25</v>
-      </c>
-      <c r="K378" t="s">
-        <v>26</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A379">
-        <v>78</v>
-      </c>
-      <c r="E379" t="s">
+        <v>229</v>
+      </c>
+      <c r="F379" t="s">
         <v>77</v>
-      </c>
-      <c r="G379">
-        <v>0</v>
       </c>
       <c r="H379">
         <v>1.5</v>
       </c>
+      <c r="I379">
+        <v>1</v>
+      </c>
+      <c r="J379" t="s">
+        <v>24</v>
+      </c>
+      <c r="K379" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A380">
+        <v>230</v>
+      </c>
+      <c r="F380" t="s">
         <v>229</v>
       </c>
-      <c r="F380" t="s">
-        <v>78</v>
-      </c>
       <c r="H380">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="I380">
         <v>1</v>
       </c>
       <c r="J380" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K380" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A381">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F381" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="H381">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I381">
         <v>1</v>
       </c>
       <c r="J381" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K381" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A382">
-        <v>231</v>
-      </c>
-      <c r="F382" t="s">
-        <v>80</v>
-      </c>
-      <c r="H382">
-        <v>0</v>
-      </c>
-      <c r="I382">
-        <v>1</v>
-      </c>
-      <c r="J382" t="s">
-        <v>25</v>
-      </c>
-      <c r="K382" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="C382" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A383">
-        <v>17</v>
-      </c>
-      <c r="C383" t="s">
-        <v>231</v>
+        <v>31</v>
+      </c>
+      <c r="D383" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A384">
-        <v>31</v>
-      </c>
-      <c r="D384" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="E384" t="s">
+        <v>15</v>
+      </c>
+      <c r="G384">
+        <v>-1</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A385">
-        <v>79</v>
-      </c>
-      <c r="E385" t="s">
-        <v>16</v>
-      </c>
-      <c r="G385">
+        <v>18</v>
+      </c>
+      <c r="F385" t="s">
+        <v>231</v>
+      </c>
+      <c r="H385">
         <v>-1</v>
       </c>
-      <c r="H385">
-        <v>0</v>
+      <c r="I385">
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A386">
-        <v>18</v>
-      </c>
-      <c r="F386" t="s">
+        <v>80</v>
+      </c>
+      <c r="E386" t="s">
         <v>232</v>
       </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
       <c r="H386">
-        <v>-1</v>
-      </c>
-      <c r="I386">
         <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A387">
-        <v>80</v>
-      </c>
-      <c r="E387" t="s">
+        <v>232</v>
+      </c>
+      <c r="F387" t="s">
         <v>233</v>
       </c>
-      <c r="G387">
-        <v>0</v>
-      </c>
       <c r="H387">
         <v>1</v>
+      </c>
+      <c r="I387">
+        <v>1</v>
+      </c>
+      <c r="J387" t="s">
+        <v>24</v>
+      </c>
+      <c r="K387" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A388">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F388" t="s">
         <v>234</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I388">
         <v>1</v>
       </c>
       <c r="J388" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K388" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A389">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F389" t="s">
         <v>235</v>
       </c>
       <c r="H389">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I389">
         <v>1</v>
       </c>
       <c r="J389" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K389" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A390">
-        <v>234</v>
-      </c>
-      <c r="F390" t="s">
+        <v>32</v>
+      </c>
+      <c r="D390" t="s">
         <v>236</v>
-      </c>
-      <c r="H390">
-        <v>0</v>
-      </c>
-      <c r="I390">
-        <v>1</v>
-      </c>
-      <c r="J390" t="s">
-        <v>25</v>
-      </c>
-      <c r="K390" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A391">
-        <v>32</v>
-      </c>
-      <c r="D391" t="s">
+        <v>81</v>
+      </c>
+      <c r="E391" t="s">
         <v>237</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>0.5</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A392">
-        <v>81</v>
-      </c>
-      <c r="E392" t="s">
+        <v>235</v>
+      </c>
+      <c r="F392" t="s">
         <v>238</v>
-      </c>
-      <c r="G392">
-        <v>0</v>
       </c>
       <c r="H392">
         <v>0.5</v>
       </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+      <c r="J392" t="s">
+        <v>24</v>
+      </c>
+      <c r="K392" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A393">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F393" t="s">
         <v>239</v>
       </c>
       <c r="H393">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I393">
         <v>1</v>
       </c>
       <c r="J393" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K393" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A394">
-        <v>236</v>
-      </c>
-      <c r="F394" t="s">
+        <v>82</v>
+      </c>
+      <c r="E394" t="s">
         <v>240</v>
       </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
       <c r="H394">
-        <v>0</v>
-      </c>
-      <c r="I394">
-        <v>1</v>
-      </c>
-      <c r="J394" t="s">
-        <v>25</v>
-      </c>
-      <c r="K394" t="s">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A395">
-        <v>82</v>
-      </c>
-      <c r="E395" t="s">
+        <v>237</v>
+      </c>
+      <c r="F395" t="s">
         <v>241</v>
-      </c>
-      <c r="G395">
-        <v>0</v>
       </c>
       <c r="H395">
         <v>0.5</v>
       </c>
+      <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395" t="s">
+        <v>24</v>
+      </c>
+      <c r="K395" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A396">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F396" t="s">
         <v>242</v>
       </c>
       <c r="H396">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I396">
         <v>1</v>
       </c>
       <c r="J396" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K396" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A397">
-        <v>238</v>
-      </c>
-      <c r="F397" t="s">
+        <v>83</v>
+      </c>
+      <c r="E397" t="s">
         <v>243</v>
       </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
       <c r="H397">
-        <v>0</v>
-      </c>
-      <c r="I397">
-        <v>1</v>
-      </c>
-      <c r="J397" t="s">
-        <v>25</v>
-      </c>
-      <c r="K397" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A398">
-        <v>83</v>
-      </c>
-      <c r="E398" t="s">
+        <v>239</v>
+      </c>
+      <c r="F398" t="s">
         <v>244</v>
       </c>
-      <c r="G398">
-        <v>0</v>
-      </c>
       <c r="H398">
         <v>1</v>
+      </c>
+      <c r="I398">
+        <v>1</v>
+      </c>
+      <c r="J398" t="s">
+        <v>24</v>
+      </c>
+      <c r="K398" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A399">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F399" t="s">
         <v>245</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I399">
         <v>1</v>
       </c>
       <c r="J399" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K399" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A400">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F400" t="s">
         <v>246</v>
       </c>
       <c r="H400">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I400">
         <v>1</v>
       </c>
       <c r="J400" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K400" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A401">
-        <v>241</v>
-      </c>
-      <c r="F401" t="s">
+        <v>84</v>
+      </c>
+      <c r="E401" t="s">
         <v>247</v>
       </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
       <c r="H401">
-        <v>0</v>
-      </c>
-      <c r="I401">
-        <v>1</v>
-      </c>
-      <c r="J401" t="s">
-        <v>25</v>
-      </c>
-      <c r="K401" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A402">
-        <v>84</v>
-      </c>
-      <c r="E402" t="s">
+        <v>242</v>
+      </c>
+      <c r="F402" t="s">
         <v>248</v>
       </c>
-      <c r="G402">
-        <v>0</v>
-      </c>
       <c r="H402">
         <v>1</v>
+      </c>
+      <c r="I402">
+        <v>1</v>
+      </c>
+      <c r="J402" t="s">
+        <v>24</v>
+      </c>
+      <c r="K402" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A403">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F403" t="s">
         <v>249</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I403">
         <v>1</v>
       </c>
       <c r="J403" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K403" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A404">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F404" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H404">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I404">
         <v>1</v>
       </c>
       <c r="J404" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K404" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A405">
-        <v>244</v>
-      </c>
-      <c r="F405" t="s">
-        <v>247</v>
+        <v>85</v>
+      </c>
+      <c r="E405" t="s">
+        <v>250</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
       </c>
       <c r="H405">
-        <v>0</v>
-      </c>
-      <c r="I405">
-        <v>1</v>
-      </c>
-      <c r="J405" t="s">
-        <v>25</v>
-      </c>
-      <c r="K405" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A406">
-        <v>85</v>
-      </c>
-      <c r="E406" t="s">
+        <v>245</v>
+      </c>
+      <c r="F406" t="s">
         <v>251</v>
-      </c>
-      <c r="G406">
-        <v>0</v>
       </c>
       <c r="H406">
         <v>2</v>
       </c>
+      <c r="I406">
+        <v>1</v>
+      </c>
+      <c r="J406" t="s">
+        <v>24</v>
+      </c>
+      <c r="K406" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A407">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F407" t="s">
         <v>252</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407">
         <v>1</v>
       </c>
       <c r="J407" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K407" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A408">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F408" t="s">
         <v>253</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I408">
         <v>1</v>
       </c>
       <c r="J408" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K408" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A409">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F409" t="s">
         <v>254</v>
       </c>
       <c r="H409">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I409">
         <v>1</v>
       </c>
       <c r="J409" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K409" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A410">
-        <v>248</v>
-      </c>
-      <c r="F410" t="s">
+        <v>18</v>
+      </c>
+      <c r="C410" t="s">
         <v>255</v>
-      </c>
-      <c r="H410">
-        <v>0</v>
-      </c>
-      <c r="I410">
-        <v>1</v>
-      </c>
-      <c r="J410" t="s">
-        <v>25</v>
-      </c>
-      <c r="K410" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A411">
-        <v>18</v>
-      </c>
-      <c r="C411" t="s">
-        <v>256</v>
+        <v>33</v>
+      </c>
+      <c r="D411" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A412">
-        <v>33</v>
-      </c>
-      <c r="D412" t="s">
+        <v>86</v>
+      </c>
+      <c r="E412" t="s">
         <v>67</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+      <c r="H412">
+        <v>1.5</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A413">
-        <v>86</v>
-      </c>
-      <c r="E413" t="s">
+        <v>249</v>
+      </c>
+      <c r="F413" t="s">
         <v>68</v>
-      </c>
-      <c r="G413">
-        <v>0</v>
       </c>
       <c r="H413">
         <v>1.5</v>
       </c>
+      <c r="I413">
+        <v>1</v>
+      </c>
+      <c r="J413" t="s">
+        <v>24</v>
+      </c>
+      <c r="K413" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A414">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F414" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H414">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I414">
         <v>1</v>
       </c>
       <c r="J414" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K414" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A415">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="F415" t="s">
         <v>71</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I415">
         <v>1</v>
-      </c>
-      <c r="J415" t="s">
-        <v>25</v>
-      </c>
-      <c r="K415" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A416">
-        <v>19</v>
-      </c>
-      <c r="F416" t="s">
+        <v>87</v>
+      </c>
+      <c r="E416" t="s">
         <v>72</v>
       </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
       <c r="H416">
-        <v>-1</v>
-      </c>
-      <c r="I416">
         <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A417">
-        <v>87</v>
-      </c>
-      <c r="E417" t="s">
+        <v>251</v>
+      </c>
+      <c r="F417" t="s">
         <v>73</v>
       </c>
-      <c r="G417">
-        <v>0</v>
-      </c>
       <c r="H417">
         <v>1</v>
+      </c>
+      <c r="I417">
+        <v>1</v>
+      </c>
+      <c r="J417" t="s">
+        <v>24</v>
+      </c>
+      <c r="K417" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A418">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F418" t="s">
         <v>74</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418">
         <v>1</v>
       </c>
       <c r="J418" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K418" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A419">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F419" t="s">
         <v>75</v>
@@ -8229,167 +8235,167 @@
         <v>1</v>
       </c>
       <c r="J419" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K419" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A420">
-        <v>253</v>
-      </c>
-      <c r="F420" t="s">
+        <v>88</v>
+      </c>
+      <c r="E420" t="s">
         <v>76</v>
       </c>
+      <c r="G420">
+        <v>0</v>
+      </c>
       <c r="H420">
-        <v>0</v>
-      </c>
-      <c r="I420">
-        <v>1</v>
-      </c>
-      <c r="J420" t="s">
-        <v>25</v>
-      </c>
-      <c r="K420" t="s">
-        <v>26</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A421">
-        <v>88</v>
-      </c>
-      <c r="E421" t="s">
+        <v>254</v>
+      </c>
+      <c r="F421" t="s">
         <v>77</v>
-      </c>
-      <c r="G421">
-        <v>0</v>
       </c>
       <c r="H421">
         <v>1.5</v>
       </c>
+      <c r="I421">
+        <v>1</v>
+      </c>
+      <c r="J421" t="s">
+        <v>24</v>
+      </c>
+      <c r="K421" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A422">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F422" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="H422">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I422">
         <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K422" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A423">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F423" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423">
         <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K423" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A424">
-        <v>256</v>
-      </c>
-      <c r="F424" t="s">
-        <v>80</v>
-      </c>
-      <c r="H424">
-        <v>0</v>
-      </c>
-      <c r="I424">
-        <v>1</v>
-      </c>
-      <c r="J424" t="s">
-        <v>25</v>
-      </c>
-      <c r="K424" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="B424" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A425">
-        <v>6</v>
-      </c>
-      <c r="B425" t="s">
-        <v>266</v>
+        <v>19</v>
+      </c>
+      <c r="C425" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A426">
-        <v>19</v>
-      </c>
-      <c r="C426" t="s">
-        <v>257</v>
+        <v>34</v>
+      </c>
+      <c r="D426" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A427">
-        <v>34</v>
-      </c>
-      <c r="D427" t="s">
-        <v>257</v>
+        <v>89</v>
+      </c>
+      <c r="E427" t="s">
+        <v>256</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+      <c r="H427">
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A428">
-        <v>89</v>
-      </c>
-      <c r="E428" t="s">
         <v>257</v>
       </c>
-      <c r="G428">
-        <v>0</v>
+      <c r="F428" t="s">
+        <v>257</v>
       </c>
       <c r="H428">
         <v>5</v>
       </c>
+      <c r="I428">
+        <v>1</v>
+      </c>
+      <c r="J428" t="s">
+        <v>24</v>
+      </c>
+      <c r="K428" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A429">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F429" t="s">
         <v>258</v>
       </c>
       <c r="H429">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I429">
         <v>1</v>
       </c>
       <c r="J429" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K429" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A430">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F430" t="s">
         <v>259</v>
@@ -8401,15 +8407,15 @@
         <v>1</v>
       </c>
       <c r="J430" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K430" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A431">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F431" t="s">
         <v>260</v>
@@ -8421,15 +8427,15 @@
         <v>1</v>
       </c>
       <c r="J431" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K431" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A432">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F432" t="s">
         <v>261</v>
@@ -8441,30 +8447,10 @@
         <v>1</v>
       </c>
       <c r="J432" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K432" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A433">
-        <v>261</v>
-      </c>
-      <c r="F433" t="s">
-        <v>262</v>
-      </c>
-      <c r="H433">
-        <v>0</v>
-      </c>
-      <c r="I433">
-        <v>1</v>
-      </c>
-      <c r="J433" t="s">
-        <v>25</v>
-      </c>
-      <c r="K433" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Herramienta/static/files/Actividad.xlsx
+++ b/Herramienta/static/files/Actividad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiton/Desktop/Universidad/TesisIIND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9606CC18-C31C-954A-BF23-977B9735BF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6973F258-49F8-134B-94F4-8820B08F2FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="267">
   <si>
     <t>Nombre:</t>
   </si>
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:K432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1636,6 +1636,9 @@
       <c r="A30">
         <v>3</v>
       </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
